--- a/0.2) Ques by Love Babbar/0) FINAL450.xlsx
+++ b/0.2) Ques by Love Babbar/0) FINAL450.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gaurav Raj\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gaurav Raj\Desktop\Apna College\Placement-Competitve\0.2) Ques by Love Babbar\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1491,12 +1491,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1512,7 +1518,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1536,6 +1542,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1854,7 +1867,7 @@
   <dimension ref="A1:C481"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D91" sqref="D91"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1889,13 +1902,13 @@
       <c r="C5" s="4"/>
     </row>
     <row r="6" spans="1:3" ht="21">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="4"/>
+      <c r="C6" s="11"/>
     </row>
     <row r="7" spans="1:3" ht="21">
       <c r="A7" s="5" t="s">

--- a/0.2) Ques by Love Babbar/0) FINAL450.xlsx
+++ b/0.2) Ques by Love Babbar/0) FINAL450.xlsx
@@ -1867,7 +1867,7 @@
   <dimension ref="A1:C481"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>

--- a/0.2) Ques by Love Babbar/0) FINAL450.xlsx
+++ b/0.2) Ques by Love Babbar/0) FINAL450.xlsx
@@ -1867,7 +1867,7 @@
   <dimension ref="A1:C481"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A7" sqref="A7:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1911,13 +1911,13 @@
       <c r="C6" s="11"/>
     </row>
     <row r="7" spans="1:3" ht="21">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="4"/>
+      <c r="C7" s="11"/>
     </row>
     <row r="8" spans="1:3" ht="21">
       <c r="A8" s="5" t="s">

--- a/0.2) Ques by Love Babbar/0) FINAL450.xlsx
+++ b/0.2) Ques by Love Babbar/0) FINAL450.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="466">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1422,6 +1422,12 @@
   </si>
   <si>
     <t xml:space="preserve">Youtube Channel: https://www.youtube.com/channel/UCQHLxxBFrbfdrk1jF0moTpw </t>
+  </si>
+  <si>
+    <t>Solved without Editorial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solved with Editorial </t>
   </si>
 </sst>
 </file>
@@ -1491,7 +1497,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1501,6 +1507,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1518,7 +1530,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1545,10 +1557,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1864,10 +1879,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C481"/>
+  <dimension ref="A1:C483"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:C7"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1887,71 +1902,65 @@
         <v>463</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="21">
-      <c r="A4" s="2" t="s">
+    <row r="3" spans="1:3">
+      <c r="B3" s="10"/>
+      <c r="C3" s="11" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="B4" s="10"/>
+      <c r="C4" s="14" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="21">
+      <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="C5" s="4"/>
-    </row>
-    <row r="6" spans="1:3" ht="21">
-      <c r="A6" s="12" t="s">
+    <row r="7" spans="1:3">
+      <c r="C7" s="4"/>
+    </row>
+    <row r="8" spans="1:3" ht="21">
+      <c r="A8" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B8" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="11"/>
-    </row>
-    <row r="7" spans="1:3" ht="21">
-      <c r="A7" s="12" t="s">
+      <c r="C8" s="14"/>
+    </row>
+    <row r="9" spans="1:3" ht="21">
+      <c r="A9" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B9" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="11"/>
-    </row>
-    <row r="8" spans="1:3" ht="21">
-      <c r="A8" s="5" t="s">
+      <c r="C9" s="14"/>
+    </row>
+    <row r="10" spans="1:3" ht="21">
+      <c r="A10" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B10" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="4"/>
-    </row>
-    <row r="9" spans="1:3" ht="21">
-      <c r="A9" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="4"/>
-    </row>
-    <row r="10" spans="1:3" ht="21">
-      <c r="A10" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="4"/>
+      <c r="C10" s="14"/>
     </row>
     <row r="11" spans="1:3" ht="21">
       <c r="A11" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C11" s="4"/>
     </row>
@@ -1960,7 +1969,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C12" s="4"/>
     </row>
@@ -1969,7 +1978,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C13" s="4"/>
     </row>
@@ -1978,7 +1987,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C14" s="4"/>
     </row>
@@ -1987,7 +1996,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C15" s="4"/>
     </row>
@@ -1996,7 +2005,7 @@
         <v>4</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C16" s="4"/>
     </row>
@@ -2005,7 +2014,7 @@
         <v>4</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C17" s="4"/>
     </row>
@@ -2014,7 +2023,7 @@
         <v>4</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C18" s="4"/>
     </row>
@@ -2023,7 +2032,7 @@
         <v>4</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C19" s="4"/>
     </row>
@@ -2032,7 +2041,7 @@
         <v>4</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C20" s="4"/>
     </row>
@@ -2041,7 +2050,7 @@
         <v>4</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C21" s="4"/>
     </row>
@@ -2050,7 +2059,7 @@
         <v>4</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C22" s="4"/>
     </row>
@@ -2059,7 +2068,7 @@
         <v>4</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C23" s="4"/>
     </row>
@@ -2068,7 +2077,7 @@
         <v>4</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C24" s="4"/>
     </row>
@@ -2077,7 +2086,7 @@
         <v>4</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C25" s="4"/>
     </row>
@@ -2086,7 +2095,7 @@
         <v>4</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C26" s="4"/>
     </row>
@@ -2095,7 +2104,7 @@
         <v>4</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C27" s="4"/>
     </row>
@@ -2104,7 +2113,7 @@
         <v>4</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C28" s="4"/>
     </row>
@@ -2113,7 +2122,7 @@
         <v>4</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C29" s="4"/>
     </row>
@@ -2122,7 +2131,7 @@
         <v>4</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C30" s="4"/>
     </row>
@@ -2131,7 +2140,7 @@
         <v>4</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C31" s="4"/>
     </row>
@@ -2140,7 +2149,7 @@
         <v>4</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C32" s="4"/>
     </row>
@@ -2149,7 +2158,7 @@
         <v>4</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C33" s="4"/>
     </row>
@@ -2158,7 +2167,7 @@
         <v>4</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C34" s="4"/>
     </row>
@@ -2167,7 +2176,7 @@
         <v>4</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C35" s="4"/>
     </row>
@@ -2176,7 +2185,7 @@
         <v>4</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C36" s="4"/>
     </row>
@@ -2185,7 +2194,7 @@
         <v>4</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C37" s="4"/>
     </row>
@@ -2194,7 +2203,7 @@
         <v>4</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C38" s="4"/>
     </row>
@@ -2203,7 +2212,7 @@
         <v>4</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C39" s="4"/>
     </row>
@@ -2212,7 +2221,7 @@
         <v>4</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C40" s="4"/>
     </row>
@@ -2221,35 +2230,35 @@
         <v>4</v>
       </c>
       <c r="B41" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C41" s="4"/>
+    </row>
+    <row r="42" spans="1:3" ht="21">
+      <c r="A42" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C42" s="4"/>
+    </row>
+    <row r="43" spans="1:3" ht="21">
+      <c r="A43" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C41" s="4"/>
-    </row>
-    <row r="42" spans="1:3" ht="21">
-      <c r="B42" s="7"/>
-      <c r="C42" s="4"/>
-    </row>
-    <row r="43" spans="1:3" ht="21">
-      <c r="A43" s="5"/>
-      <c r="B43" s="7"/>
       <c r="C43" s="4"/>
     </row>
     <row r="44" spans="1:3" ht="21">
-      <c r="A44" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>42</v>
-      </c>
+      <c r="B44" s="7"/>
       <c r="C44" s="4"/>
     </row>
     <row r="45" spans="1:3" ht="21">
-      <c r="A45" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="A45" s="5"/>
+      <c r="B45" s="7"/>
       <c r="C45" s="4"/>
     </row>
     <row r="46" spans="1:3" ht="21">
@@ -2257,7 +2266,7 @@
         <v>41</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C46" s="4"/>
     </row>
@@ -2266,7 +2275,7 @@
         <v>41</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C47" s="4"/>
     </row>
@@ -2275,7 +2284,7 @@
         <v>41</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C48" s="4"/>
     </row>
@@ -2284,7 +2293,7 @@
         <v>41</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C49" s="4"/>
     </row>
@@ -2293,7 +2302,7 @@
         <v>41</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C50" s="4"/>
     </row>
@@ -2302,7 +2311,7 @@
         <v>41</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C51" s="4"/>
     </row>
@@ -2311,7 +2320,7 @@
         <v>41</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C52" s="4"/>
     </row>
@@ -2320,31 +2329,31 @@
         <v>41</v>
       </c>
       <c r="B53" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C53" s="4"/>
+    </row>
+    <row r="54" spans="1:3" ht="21">
+      <c r="A54" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C54" s="4"/>
+    </row>
+    <row r="55" spans="1:3" ht="21">
+      <c r="A55" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B55" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C53" s="4"/>
-    </row>
-    <row r="55" spans="1:3" ht="21">
-      <c r="A55" s="5"/>
-      <c r="B55" s="7"/>
       <c r="C55" s="4"/>
     </row>
-    <row r="56" spans="1:3" ht="21">
-      <c r="A56" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C56" s="4"/>
-    </row>
     <row r="57" spans="1:3" ht="21">
-      <c r="A57" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>54</v>
-      </c>
+      <c r="A57" s="5"/>
+      <c r="B57" s="7"/>
       <c r="C57" s="4"/>
     </row>
     <row r="58" spans="1:3" ht="21">
@@ -2352,7 +2361,7 @@
         <v>52</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C58" s="4"/>
     </row>
@@ -2360,8 +2369,8 @@
       <c r="A59" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B59" s="7" t="s">
-        <v>56</v>
+      <c r="B59" s="6" t="s">
+        <v>54</v>
       </c>
       <c r="C59" s="4"/>
     </row>
@@ -2370,7 +2379,7 @@
         <v>52</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C60" s="4"/>
     </row>
@@ -2378,8 +2387,8 @@
       <c r="A61" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B61" s="6" t="s">
-        <v>58</v>
+      <c r="B61" s="7" t="s">
+        <v>56</v>
       </c>
       <c r="C61" s="4"/>
     </row>
@@ -2388,7 +2397,7 @@
         <v>52</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C62" s="4"/>
     </row>
@@ -2397,7 +2406,7 @@
         <v>52</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C63" s="4"/>
     </row>
@@ -2406,7 +2415,7 @@
         <v>52</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C64" s="4"/>
     </row>
@@ -2415,7 +2424,7 @@
         <v>52</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C65" s="4"/>
     </row>
@@ -2424,7 +2433,7 @@
         <v>52</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C66" s="4"/>
     </row>
@@ -2433,7 +2442,7 @@
         <v>52</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C67" s="4"/>
     </row>
@@ -2442,7 +2451,7 @@
         <v>52</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C68" s="4"/>
     </row>
@@ -2451,7 +2460,7 @@
         <v>52</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C69" s="4"/>
     </row>
@@ -2460,7 +2469,7 @@
         <v>52</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C70" s="4"/>
     </row>
@@ -2469,7 +2478,7 @@
         <v>52</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C71" s="4"/>
     </row>
@@ -2478,7 +2487,7 @@
         <v>52</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C72" s="4"/>
     </row>
@@ -2487,7 +2496,7 @@
         <v>52</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C73" s="4"/>
     </row>
@@ -2496,7 +2505,7 @@
         <v>52</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C74" s="4"/>
     </row>
@@ -2505,7 +2514,7 @@
         <v>52</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C75" s="4"/>
     </row>
@@ -2514,7 +2523,7 @@
         <v>52</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C76" s="4"/>
     </row>
@@ -2523,7 +2532,7 @@
         <v>52</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C77" s="4"/>
     </row>
@@ -2532,7 +2541,7 @@
         <v>52</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C78" s="4"/>
     </row>
@@ -2541,7 +2550,7 @@
         <v>52</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C79" s="4"/>
     </row>
@@ -2550,7 +2559,7 @@
         <v>52</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C80" s="4"/>
     </row>
@@ -2559,7 +2568,7 @@
         <v>52</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C81" s="4"/>
     </row>
@@ -2568,7 +2577,7 @@
         <v>52</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C82" s="4"/>
     </row>
@@ -2577,7 +2586,7 @@
         <v>52</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C83" s="4"/>
     </row>
@@ -2586,7 +2595,7 @@
         <v>52</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C84" s="4"/>
     </row>
@@ -2595,7 +2604,7 @@
         <v>52</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C85" s="4"/>
     </row>
@@ -2604,7 +2613,7 @@
         <v>52</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C86" s="4"/>
     </row>
@@ -2613,7 +2622,7 @@
         <v>52</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C87" s="4"/>
     </row>
@@ -2622,7 +2631,7 @@
         <v>52</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C88" s="4"/>
     </row>
@@ -2631,7 +2640,7 @@
         <v>52</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C89" s="4"/>
     </row>
@@ -2640,7 +2649,7 @@
         <v>52</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C90" s="4"/>
     </row>
@@ -2649,7 +2658,7 @@
         <v>52</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C91" s="4"/>
     </row>
@@ -2658,7 +2667,7 @@
         <v>52</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C92" s="4"/>
     </row>
@@ -2667,7 +2676,7 @@
         <v>52</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C93" s="4"/>
     </row>
@@ -2676,7 +2685,7 @@
         <v>52</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C94" s="4"/>
     </row>
@@ -2685,7 +2694,7 @@
         <v>52</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C95" s="4"/>
     </row>
@@ -2694,7 +2703,7 @@
         <v>52</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C96" s="4"/>
     </row>
@@ -2703,7 +2712,7 @@
         <v>52</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C97" s="4"/>
     </row>
@@ -2712,31 +2721,31 @@
         <v>52</v>
       </c>
       <c r="B98" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C98" s="4"/>
+    </row>
+    <row r="99" spans="1:3" ht="21">
+      <c r="A99" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C99" s="4"/>
+    </row>
+    <row r="100" spans="1:3" ht="21">
+      <c r="A100" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B100" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="C98" s="4"/>
-    </row>
-    <row r="100" spans="1:3" ht="21">
-      <c r="A100" s="8"/>
-      <c r="B100" s="7"/>
       <c r="C100" s="4"/>
     </row>
-    <row r="101" spans="1:3" ht="21">
-      <c r="A101" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B101" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="C101" s="4"/>
-    </row>
     <row r="102" spans="1:3" ht="21">
-      <c r="A102" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B102" s="6" t="s">
-        <v>98</v>
-      </c>
+      <c r="A102" s="8"/>
+      <c r="B102" s="7"/>
       <c r="C102" s="4"/>
     </row>
     <row r="103" spans="1:3" ht="21">
@@ -2744,7 +2753,7 @@
         <v>96</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C103" s="4"/>
     </row>
@@ -2753,7 +2762,7 @@
         <v>96</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C104" s="4"/>
     </row>
@@ -2762,7 +2771,7 @@
         <v>96</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C105" s="4"/>
     </row>
@@ -2771,7 +2780,7 @@
         <v>96</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C106" s="4"/>
     </row>
@@ -2780,7 +2789,7 @@
         <v>96</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C107" s="4"/>
     </row>
@@ -2789,7 +2798,7 @@
         <v>96</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C108" s="4"/>
     </row>
@@ -2798,7 +2807,7 @@
         <v>96</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C109" s="4"/>
     </row>
@@ -2807,7 +2816,7 @@
         <v>96</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C110" s="4"/>
     </row>
@@ -2816,7 +2825,7 @@
         <v>96</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C111" s="4"/>
     </row>
@@ -2825,7 +2834,7 @@
         <v>96</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C112" s="4"/>
     </row>
@@ -2834,7 +2843,7 @@
         <v>96</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C113" s="4"/>
     </row>
@@ -2843,7 +2852,7 @@
         <v>96</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C114" s="4"/>
     </row>
@@ -2852,7 +2861,7 @@
         <v>96</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C115" s="4"/>
     </row>
@@ -2861,7 +2870,7 @@
         <v>96</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C116" s="4"/>
     </row>
@@ -2870,7 +2879,7 @@
         <v>96</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C117" s="4"/>
     </row>
@@ -2879,7 +2888,7 @@
         <v>96</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C118" s="4"/>
     </row>
@@ -2888,7 +2897,7 @@
         <v>96</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C119" s="4"/>
     </row>
@@ -2897,7 +2906,7 @@
         <v>96</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C120" s="4"/>
     </row>
@@ -2906,7 +2915,7 @@
         <v>96</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C121" s="4"/>
     </row>
@@ -2915,7 +2924,7 @@
         <v>96</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C122" s="4"/>
     </row>
@@ -2924,7 +2933,7 @@
         <v>96</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C123" s="4"/>
     </row>
@@ -2933,7 +2942,7 @@
         <v>96</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C124" s="4"/>
     </row>
@@ -2942,7 +2951,7 @@
         <v>96</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C125" s="4"/>
     </row>
@@ -2951,7 +2960,7 @@
         <v>96</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C126" s="4"/>
     </row>
@@ -2960,7 +2969,7 @@
         <v>96</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C127" s="4"/>
     </row>
@@ -2969,7 +2978,7 @@
         <v>96</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C128" s="4"/>
     </row>
@@ -2978,7 +2987,7 @@
         <v>96</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C129" s="4"/>
     </row>
@@ -2987,7 +2996,7 @@
         <v>96</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C130" s="4"/>
     </row>
@@ -2996,7 +3005,7 @@
         <v>96</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C131" s="4"/>
     </row>
@@ -3005,7 +3014,7 @@
         <v>96</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C132" s="4"/>
     </row>
@@ -3014,7 +3023,7 @@
         <v>96</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C133" s="4"/>
     </row>
@@ -3023,7 +3032,7 @@
         <v>96</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C134" s="4"/>
     </row>
@@ -3032,7 +3041,7 @@
         <v>96</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C135" s="4"/>
     </row>
@@ -3041,30 +3050,30 @@
         <v>96</v>
       </c>
       <c r="B136" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C136" s="4"/>
+    </row>
+    <row r="137" spans="1:3" ht="21">
+      <c r="A137" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B137" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C137" s="4"/>
+    </row>
+    <row r="138" spans="1:3" ht="21">
+      <c r="A138" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B138" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="C136" s="4"/>
-    </row>
-    <row r="138" spans="1:3" ht="21">
-      <c r="B138" s="7"/>
       <c r="C138" s="4"/>
     </row>
-    <row r="139" spans="1:3" ht="21">
-      <c r="A139" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="B139" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C139" s="4"/>
-    </row>
     <row r="140" spans="1:3" ht="21">
-      <c r="A140" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="B140" s="6" t="s">
-        <v>135</v>
-      </c>
+      <c r="B140" s="7"/>
       <c r="C140" s="4"/>
     </row>
     <row r="141" spans="1:3" ht="21">
@@ -3072,7 +3081,7 @@
         <v>133</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C141" s="4"/>
     </row>
@@ -3081,7 +3090,7 @@
         <v>133</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C142" s="4"/>
     </row>
@@ -3090,7 +3099,7 @@
         <v>133</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C143" s="4"/>
     </row>
@@ -3099,7 +3108,7 @@
         <v>133</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C144" s="4"/>
     </row>
@@ -3108,7 +3117,7 @@
         <v>133</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C145" s="4"/>
     </row>
@@ -3117,7 +3126,7 @@
         <v>133</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C146" s="4"/>
     </row>
@@ -3126,7 +3135,7 @@
         <v>133</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C147" s="4"/>
     </row>
@@ -3135,7 +3144,7 @@
         <v>133</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C148" s="4"/>
     </row>
@@ -3144,7 +3153,7 @@
         <v>133</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C149" s="4"/>
     </row>
@@ -3153,7 +3162,7 @@
         <v>133</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C150" s="4"/>
     </row>
@@ -3162,7 +3171,7 @@
         <v>133</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C151" s="4"/>
     </row>
@@ -3171,7 +3180,7 @@
         <v>133</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C152" s="4"/>
     </row>
@@ -3180,7 +3189,7 @@
         <v>133</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C153" s="4"/>
     </row>
@@ -3189,7 +3198,7 @@
         <v>133</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C154" s="4"/>
     </row>
@@ -3198,7 +3207,7 @@
         <v>133</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C155" s="4"/>
     </row>
@@ -3207,7 +3216,7 @@
         <v>133</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C156" s="4"/>
     </row>
@@ -3216,7 +3225,7 @@
         <v>133</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C157" s="4"/>
     </row>
@@ -3225,7 +3234,7 @@
         <v>133</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C158" s="4"/>
     </row>
@@ -3234,7 +3243,7 @@
         <v>133</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C159" s="4"/>
     </row>
@@ -3243,7 +3252,7 @@
         <v>133</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C160" s="4"/>
     </row>
@@ -3252,7 +3261,7 @@
         <v>133</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C161" s="4"/>
     </row>
@@ -3261,7 +3270,7 @@
         <v>133</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C162" s="4"/>
     </row>
@@ -3270,7 +3279,7 @@
         <v>133</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C163" s="4"/>
     </row>
@@ -3278,8 +3287,8 @@
       <c r="A164" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="B164" s="7" t="s">
-        <v>159</v>
+      <c r="B164" s="6" t="s">
+        <v>157</v>
       </c>
       <c r="C164" s="4"/>
     </row>
@@ -3287,8 +3296,8 @@
       <c r="A165" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="B165" s="7" t="s">
-        <v>160</v>
+      <c r="B165" s="6" t="s">
+        <v>158</v>
       </c>
       <c r="C165" s="4"/>
     </row>
@@ -3296,8 +3305,8 @@
       <c r="A166" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="B166" s="6" t="s">
-        <v>161</v>
+      <c r="B166" s="7" t="s">
+        <v>159</v>
       </c>
       <c r="C166" s="4"/>
     </row>
@@ -3305,8 +3314,8 @@
       <c r="A167" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="B167" s="6" t="s">
-        <v>162</v>
+      <c r="B167" s="7" t="s">
+        <v>160</v>
       </c>
       <c r="C167" s="4"/>
     </row>
@@ -3315,7 +3324,7 @@
         <v>133</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C168" s="4"/>
     </row>
@@ -3324,7 +3333,7 @@
         <v>133</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C169" s="4"/>
     </row>
@@ -3333,7 +3342,7 @@
         <v>133</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C170" s="4"/>
     </row>
@@ -3342,7 +3351,7 @@
         <v>133</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C171" s="4"/>
     </row>
@@ -3351,7 +3360,7 @@
         <v>133</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C172" s="4"/>
     </row>
@@ -3360,7 +3369,7 @@
         <v>133</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C173" s="4"/>
     </row>
@@ -3369,30 +3378,30 @@
         <v>133</v>
       </c>
       <c r="B174" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="C174" s="4"/>
+    </row>
+    <row r="175" spans="1:3" ht="21">
+      <c r="A175" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B175" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="C175" s="4"/>
+    </row>
+    <row r="176" spans="1:3" ht="21">
+      <c r="A176" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B176" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="C174" s="4"/>
-    </row>
-    <row r="176" spans="1:3" ht="21">
-      <c r="B176" s="7"/>
       <c r="C176" s="4"/>
     </row>
-    <row r="177" spans="1:3" ht="21">
-      <c r="A177" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="B177" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="C177" s="4"/>
-    </row>
     <row r="178" spans="1:3" ht="21">
-      <c r="A178" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="B178" s="6" t="s">
-        <v>172</v>
-      </c>
+      <c r="B178" s="7"/>
       <c r="C178" s="4"/>
     </row>
     <row r="179" spans="1:3" ht="21">
@@ -3400,7 +3409,7 @@
         <v>170</v>
       </c>
       <c r="B179" s="6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C179" s="4"/>
     </row>
@@ -3409,7 +3418,7 @@
         <v>170</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C180" s="4"/>
     </row>
@@ -3418,7 +3427,7 @@
         <v>170</v>
       </c>
       <c r="B181" s="6" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C181" s="4"/>
     </row>
@@ -3427,7 +3436,7 @@
         <v>170</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C182" s="4"/>
     </row>
@@ -3436,7 +3445,7 @@
         <v>170</v>
       </c>
       <c r="B183" s="6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C183" s="4"/>
     </row>
@@ -3445,7 +3454,7 @@
         <v>170</v>
       </c>
       <c r="B184" s="6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C184" s="4"/>
     </row>
@@ -3454,7 +3463,7 @@
         <v>170</v>
       </c>
       <c r="B185" s="6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C185" s="4"/>
     </row>
@@ -3463,7 +3472,7 @@
         <v>170</v>
       </c>
       <c r="B186" s="6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C186" s="4"/>
     </row>
@@ -3472,7 +3481,7 @@
         <v>170</v>
       </c>
       <c r="B187" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C187" s="4"/>
     </row>
@@ -3481,7 +3490,7 @@
         <v>170</v>
       </c>
       <c r="B188" s="6" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C188" s="4"/>
     </row>
@@ -3490,7 +3499,7 @@
         <v>170</v>
       </c>
       <c r="B189" s="6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C189" s="4"/>
     </row>
@@ -3499,7 +3508,7 @@
         <v>170</v>
       </c>
       <c r="B190" s="6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C190" s="4"/>
     </row>
@@ -3508,7 +3517,7 @@
         <v>170</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C191" s="4"/>
     </row>
@@ -3517,7 +3526,7 @@
         <v>170</v>
       </c>
       <c r="B192" s="6" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C192" s="4"/>
     </row>
@@ -3526,7 +3535,7 @@
         <v>170</v>
       </c>
       <c r="B193" s="6" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C193" s="4"/>
     </row>
@@ -3535,7 +3544,7 @@
         <v>170</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C194" s="4"/>
     </row>
@@ -3544,7 +3553,7 @@
         <v>170</v>
       </c>
       <c r="B195" s="6" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C195" s="4"/>
     </row>
@@ -3553,7 +3562,7 @@
         <v>170</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C196" s="4"/>
     </row>
@@ -3562,7 +3571,7 @@
         <v>170</v>
       </c>
       <c r="B197" s="6" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C197" s="4"/>
     </row>
@@ -3571,7 +3580,7 @@
         <v>170</v>
       </c>
       <c r="B198" s="6" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C198" s="4"/>
     </row>
@@ -3580,7 +3589,7 @@
         <v>170</v>
       </c>
       <c r="B199" s="6" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C199" s="4"/>
     </row>
@@ -3589,7 +3598,7 @@
         <v>170</v>
       </c>
       <c r="B200" s="6" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C200" s="4"/>
     </row>
@@ -3598,7 +3607,7 @@
         <v>170</v>
       </c>
       <c r="B201" s="6" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C201" s="4"/>
     </row>
@@ -3607,7 +3616,7 @@
         <v>170</v>
       </c>
       <c r="B202" s="6" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C202" s="4"/>
     </row>
@@ -3616,7 +3625,7 @@
         <v>170</v>
       </c>
       <c r="B203" s="6" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C203" s="4"/>
     </row>
@@ -3625,7 +3634,7 @@
         <v>170</v>
       </c>
       <c r="B204" s="6" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C204" s="4"/>
     </row>
@@ -3634,7 +3643,7 @@
         <v>170</v>
       </c>
       <c r="B205" s="6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C205" s="4"/>
     </row>
@@ -3643,7 +3652,7 @@
         <v>170</v>
       </c>
       <c r="B206" s="6" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C206" s="4"/>
     </row>
@@ -3652,7 +3661,7 @@
         <v>170</v>
       </c>
       <c r="B207" s="6" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C207" s="4"/>
     </row>
@@ -3661,7 +3670,7 @@
         <v>170</v>
       </c>
       <c r="B208" s="6" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C208" s="4"/>
     </row>
@@ -3670,7 +3679,7 @@
         <v>170</v>
       </c>
       <c r="B209" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C209" s="4"/>
     </row>
@@ -3679,7 +3688,7 @@
         <v>170</v>
       </c>
       <c r="B210" s="6" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C210" s="4"/>
     </row>
@@ -3688,36 +3697,36 @@
         <v>170</v>
       </c>
       <c r="B211" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="C211" s="4"/>
+    </row>
+    <row r="212" spans="1:3" ht="21">
+      <c r="A212" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B212" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="C212" s="4"/>
+    </row>
+    <row r="213" spans="1:3" ht="21">
+      <c r="A213" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B213" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="C211" s="4"/>
-    </row>
-    <row r="212" spans="1:3" ht="21">
-      <c r="A212" s="8"/>
-      <c r="B212" s="7"/>
-      <c r="C212" s="4"/>
-    </row>
-    <row r="213" spans="1:3" ht="21">
-      <c r="A213" s="8"/>
-      <c r="B213" s="7"/>
       <c r="C213" s="4"/>
     </row>
     <row r="214" spans="1:3" ht="21">
-      <c r="A214" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="B214" s="6" t="s">
-        <v>207</v>
-      </c>
+      <c r="A214" s="8"/>
+      <c r="B214" s="7"/>
       <c r="C214" s="4"/>
     </row>
     <row r="215" spans="1:3" ht="21">
-      <c r="A215" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="B215" s="6" t="s">
-        <v>208</v>
-      </c>
+      <c r="A215" s="8"/>
+      <c r="B215" s="7"/>
       <c r="C215" s="4"/>
     </row>
     <row r="216" spans="1:3" ht="21">
@@ -3725,7 +3734,7 @@
         <v>206</v>
       </c>
       <c r="B216" s="6" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C216" s="4"/>
     </row>
@@ -3734,7 +3743,7 @@
         <v>206</v>
       </c>
       <c r="B217" s="6" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C217" s="4"/>
     </row>
@@ -3743,7 +3752,7 @@
         <v>206</v>
       </c>
       <c r="B218" s="6" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C218" s="4"/>
     </row>
@@ -3752,7 +3761,7 @@
         <v>206</v>
       </c>
       <c r="B219" s="6" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C219" s="4"/>
     </row>
@@ -3760,8 +3769,8 @@
       <c r="A220" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="B220" s="9" t="s">
-        <v>213</v>
+      <c r="B220" s="6" t="s">
+        <v>211</v>
       </c>
       <c r="C220" s="4"/>
     </row>
@@ -3770,7 +3779,7 @@
         <v>206</v>
       </c>
       <c r="B221" s="6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C221" s="4"/>
     </row>
@@ -3778,8 +3787,8 @@
       <c r="A222" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="B222" s="6" t="s">
-        <v>215</v>
+      <c r="B222" s="9" t="s">
+        <v>213</v>
       </c>
       <c r="C222" s="4"/>
     </row>
@@ -3788,7 +3797,7 @@
         <v>206</v>
       </c>
       <c r="B223" s="6" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C223" s="4"/>
     </row>
@@ -3797,7 +3806,7 @@
         <v>206</v>
       </c>
       <c r="B224" s="6" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C224" s="4"/>
     </row>
@@ -3806,7 +3815,7 @@
         <v>206</v>
       </c>
       <c r="B225" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C225" s="4"/>
     </row>
@@ -3815,7 +3824,7 @@
         <v>206</v>
       </c>
       <c r="B226" s="6" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C226" s="4"/>
     </row>
@@ -3824,7 +3833,7 @@
         <v>206</v>
       </c>
       <c r="B227" s="6" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C227" s="4"/>
     </row>
@@ -3833,7 +3842,7 @@
         <v>206</v>
       </c>
       <c r="B228" s="6" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C228" s="4"/>
     </row>
@@ -3842,7 +3851,7 @@
         <v>206</v>
       </c>
       <c r="B229" s="6" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C229" s="4"/>
     </row>
@@ -3851,7 +3860,7 @@
         <v>206</v>
       </c>
       <c r="B230" s="6" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C230" s="4"/>
     </row>
@@ -3860,7 +3869,7 @@
         <v>206</v>
       </c>
       <c r="B231" s="6" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C231" s="4"/>
     </row>
@@ -3869,7 +3878,7 @@
         <v>206</v>
       </c>
       <c r="B232" s="6" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C232" s="4"/>
     </row>
@@ -3878,7 +3887,7 @@
         <v>206</v>
       </c>
       <c r="B233" s="6" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C233" s="4"/>
     </row>
@@ -3887,7 +3896,7 @@
         <v>206</v>
       </c>
       <c r="B234" s="6" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C234" s="4"/>
     </row>
@@ -3896,34 +3905,34 @@
         <v>206</v>
       </c>
       <c r="B235" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="C235" s="4"/>
+    </row>
+    <row r="236" spans="1:3" ht="21">
+      <c r="A236" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="B236" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="C236" s="4"/>
+    </row>
+    <row r="237" spans="1:3" ht="21">
+      <c r="A237" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="B237" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="C235" s="4"/>
-    </row>
-    <row r="236" spans="1:3" ht="21">
-      <c r="B236" s="7"/>
-      <c r="C236" s="4"/>
-    </row>
-    <row r="237" spans="1:3" ht="21">
-      <c r="B237" s="7"/>
       <c r="C237" s="4"/>
     </row>
     <row r="238" spans="1:3" ht="21">
-      <c r="A238" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="B238" s="6" t="s">
-        <v>230</v>
-      </c>
+      <c r="B238" s="7"/>
       <c r="C238" s="4"/>
     </row>
     <row r="239" spans="1:3" ht="21">
-      <c r="A239" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="B239" s="6" t="s">
-        <v>231</v>
-      </c>
+      <c r="B239" s="7"/>
       <c r="C239" s="4"/>
     </row>
     <row r="240" spans="1:3" ht="21">
@@ -3931,7 +3940,7 @@
         <v>229</v>
       </c>
       <c r="B240" s="6" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C240" s="4"/>
     </row>
@@ -3940,7 +3949,7 @@
         <v>229</v>
       </c>
       <c r="B241" s="6" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C241" s="4"/>
     </row>
@@ -3949,7 +3958,7 @@
         <v>229</v>
       </c>
       <c r="B242" s="6" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C242" s="4"/>
     </row>
@@ -3958,7 +3967,7 @@
         <v>229</v>
       </c>
       <c r="B243" s="6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C243" s="4"/>
     </row>
@@ -3967,7 +3976,7 @@
         <v>229</v>
       </c>
       <c r="B244" s="6" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C244" s="4"/>
     </row>
@@ -3976,7 +3985,7 @@
         <v>229</v>
       </c>
       <c r="B245" s="6" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C245" s="4"/>
     </row>
@@ -3985,7 +3994,7 @@
         <v>229</v>
       </c>
       <c r="B246" s="6" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C246" s="4"/>
     </row>
@@ -3994,7 +4003,7 @@
         <v>229</v>
       </c>
       <c r="B247" s="6" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C247" s="4"/>
     </row>
@@ -4003,7 +4012,7 @@
         <v>229</v>
       </c>
       <c r="B248" s="6" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C248" s="4"/>
     </row>
@@ -4012,7 +4021,7 @@
         <v>229</v>
       </c>
       <c r="B249" s="6" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C249" s="4"/>
     </row>
@@ -4021,7 +4030,7 @@
         <v>229</v>
       </c>
       <c r="B250" s="6" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C250" s="4"/>
     </row>
@@ -4030,7 +4039,7 @@
         <v>229</v>
       </c>
       <c r="B251" s="6" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C251" s="4"/>
     </row>
@@ -4039,7 +4048,7 @@
         <v>229</v>
       </c>
       <c r="B252" s="6" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C252" s="4"/>
     </row>
@@ -4048,7 +4057,7 @@
         <v>229</v>
       </c>
       <c r="B253" s="6" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C253" s="4"/>
     </row>
@@ -4057,7 +4066,7 @@
         <v>229</v>
       </c>
       <c r="B254" s="6" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C254" s="4"/>
     </row>
@@ -4066,7 +4075,7 @@
         <v>229</v>
       </c>
       <c r="B255" s="6" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C255" s="4"/>
     </row>
@@ -4075,7 +4084,7 @@
         <v>229</v>
       </c>
       <c r="B256" s="6" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C256" s="4"/>
     </row>
@@ -4084,7 +4093,7 @@
         <v>229</v>
       </c>
       <c r="B257" s="6" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C257" s="4"/>
     </row>
@@ -4093,7 +4102,7 @@
         <v>229</v>
       </c>
       <c r="B258" s="6" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C258" s="4"/>
     </row>
@@ -4102,7 +4111,7 @@
         <v>229</v>
       </c>
       <c r="B259" s="6" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C259" s="4"/>
     </row>
@@ -4111,7 +4120,7 @@
         <v>229</v>
       </c>
       <c r="B260" s="6" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C260" s="4"/>
     </row>
@@ -4120,7 +4129,7 @@
         <v>229</v>
       </c>
       <c r="B261" s="6" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C261" s="4"/>
     </row>
@@ -4129,7 +4138,7 @@
         <v>229</v>
       </c>
       <c r="B262" s="6" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C262" s="4"/>
     </row>
@@ -4138,7 +4147,7 @@
         <v>229</v>
       </c>
       <c r="B263" s="6" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C263" s="4"/>
     </row>
@@ -4147,7 +4156,7 @@
         <v>229</v>
       </c>
       <c r="B264" s="6" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C264" s="4"/>
     </row>
@@ -4156,7 +4165,7 @@
         <v>229</v>
       </c>
       <c r="B265" s="6" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C265" s="4"/>
     </row>
@@ -4165,7 +4174,7 @@
         <v>229</v>
       </c>
       <c r="B266" s="6" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C266" s="4"/>
     </row>
@@ -4174,7 +4183,7 @@
         <v>229</v>
       </c>
       <c r="B267" s="6" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C267" s="4"/>
     </row>
@@ -4183,7 +4192,7 @@
         <v>229</v>
       </c>
       <c r="B268" s="6" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C268" s="4"/>
     </row>
@@ -4192,7 +4201,7 @@
         <v>229</v>
       </c>
       <c r="B269" s="6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C269" s="4"/>
     </row>
@@ -4201,7 +4210,7 @@
         <v>229</v>
       </c>
       <c r="B270" s="6" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C270" s="4"/>
     </row>
@@ -4210,7 +4219,7 @@
         <v>229</v>
       </c>
       <c r="B271" s="6" t="s">
-        <v>86</v>
+        <v>261</v>
       </c>
       <c r="C271" s="4"/>
     </row>
@@ -4219,34 +4228,34 @@
         <v>229</v>
       </c>
       <c r="B272" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="C272" s="4"/>
+    </row>
+    <row r="273" spans="1:3" ht="21">
+      <c r="A273" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="B273" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C273" s="4"/>
+    </row>
+    <row r="274" spans="1:3" ht="21">
+      <c r="A274" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="B274" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="C272" s="4"/>
-    </row>
-    <row r="273" spans="1:3" ht="21">
-      <c r="B273" s="7"/>
-      <c r="C273" s="4"/>
-    </row>
-    <row r="274" spans="1:3" ht="21">
-      <c r="B274" s="7"/>
       <c r="C274" s="4"/>
     </row>
     <row r="275" spans="1:3" ht="21">
-      <c r="A275" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="B275" s="6" t="s">
-        <v>265</v>
-      </c>
+      <c r="B275" s="7"/>
       <c r="C275" s="4"/>
     </row>
     <row r="276" spans="1:3" ht="21">
-      <c r="A276" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="B276" s="6" t="s">
-        <v>266</v>
-      </c>
+      <c r="B276" s="7"/>
       <c r="C276" s="4"/>
     </row>
     <row r="277" spans="1:3" ht="21">
@@ -4254,7 +4263,7 @@
         <v>264</v>
       </c>
       <c r="B277" s="6" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C277" s="4"/>
     </row>
@@ -4263,7 +4272,7 @@
         <v>264</v>
       </c>
       <c r="B278" s="6" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C278" s="4"/>
     </row>
@@ -4272,7 +4281,7 @@
         <v>264</v>
       </c>
       <c r="B279" s="6" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C279" s="4"/>
     </row>
@@ -4281,7 +4290,7 @@
         <v>264</v>
       </c>
       <c r="B280" s="6" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C280" s="4"/>
     </row>
@@ -4290,7 +4299,7 @@
         <v>264</v>
       </c>
       <c r="B281" s="6" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C281" s="4"/>
     </row>
@@ -4299,7 +4308,7 @@
         <v>264</v>
       </c>
       <c r="B282" s="6" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C282" s="4"/>
     </row>
@@ -4308,7 +4317,7 @@
         <v>264</v>
       </c>
       <c r="B283" s="6" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C283" s="4"/>
     </row>
@@ -4317,7 +4326,7 @@
         <v>264</v>
       </c>
       <c r="B284" s="6" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C284" s="4"/>
     </row>
@@ -4326,7 +4335,7 @@
         <v>264</v>
       </c>
       <c r="B285" s="6" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C285" s="4"/>
     </row>
@@ -4335,7 +4344,7 @@
         <v>264</v>
       </c>
       <c r="B286" s="6" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C286" s="4"/>
     </row>
@@ -4344,7 +4353,7 @@
         <v>264</v>
       </c>
       <c r="B287" s="6" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C287" s="4"/>
     </row>
@@ -4353,7 +4362,7 @@
         <v>264</v>
       </c>
       <c r="B288" s="6" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C288" s="4"/>
     </row>
@@ -4362,7 +4371,7 @@
         <v>264</v>
       </c>
       <c r="B289" s="6" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C289" s="4"/>
     </row>
@@ -4371,7 +4380,7 @@
         <v>264</v>
       </c>
       <c r="B290" s="6" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C290" s="4"/>
     </row>
@@ -4380,7 +4389,7 @@
         <v>264</v>
       </c>
       <c r="B291" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C291" s="4"/>
     </row>
@@ -4389,7 +4398,7 @@
         <v>264</v>
       </c>
       <c r="B292" s="6" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C292" s="4"/>
     </row>
@@ -4398,34 +4407,34 @@
         <v>264</v>
       </c>
       <c r="B293" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="C293" s="4"/>
+    </row>
+    <row r="294" spans="1:3" ht="21">
+      <c r="A294" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="B294" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="C294" s="4"/>
+    </row>
+    <row r="295" spans="1:3" ht="21">
+      <c r="A295" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="B295" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="C293" s="4"/>
-    </row>
-    <row r="294" spans="1:3" ht="21">
-      <c r="B294" s="7"/>
-      <c r="C294" s="4"/>
-    </row>
-    <row r="295" spans="1:3" ht="21">
-      <c r="B295" s="7"/>
       <c r="C295" s="4"/>
     </row>
     <row r="296" spans="1:3" ht="21">
-      <c r="A296" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="B296" s="6" t="s">
-        <v>285</v>
-      </c>
+      <c r="B296" s="7"/>
       <c r="C296" s="4"/>
     </row>
     <row r="297" spans="1:3" ht="21">
-      <c r="A297" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="B297" s="6" t="s">
-        <v>286</v>
-      </c>
+      <c r="B297" s="7"/>
       <c r="C297" s="4"/>
     </row>
     <row r="298" spans="1:3" ht="21">
@@ -4433,7 +4442,7 @@
         <v>284</v>
       </c>
       <c r="B298" s="6" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C298" s="4"/>
     </row>
@@ -4442,7 +4451,7 @@
         <v>284</v>
       </c>
       <c r="B299" s="6" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C299" s="4"/>
     </row>
@@ -4451,7 +4460,7 @@
         <v>284</v>
       </c>
       <c r="B300" s="6" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C300" s="4"/>
     </row>
@@ -4460,7 +4469,7 @@
         <v>284</v>
       </c>
       <c r="B301" s="6" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C301" s="4"/>
     </row>
@@ -4469,7 +4478,7 @@
         <v>284</v>
       </c>
       <c r="B302" s="6" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C302" s="4"/>
     </row>
@@ -4478,7 +4487,7 @@
         <v>284</v>
       </c>
       <c r="B303" s="6" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C303" s="4"/>
     </row>
@@ -4487,7 +4496,7 @@
         <v>284</v>
       </c>
       <c r="B304" s="6" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C304" s="4"/>
     </row>
@@ -4496,7 +4505,7 @@
         <v>284</v>
       </c>
       <c r="B305" s="6" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C305" s="4"/>
     </row>
@@ -4505,7 +4514,7 @@
         <v>284</v>
       </c>
       <c r="B306" s="6" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C306" s="4"/>
     </row>
@@ -4514,7 +4523,7 @@
         <v>284</v>
       </c>
       <c r="B307" s="6" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C307" s="4"/>
     </row>
@@ -4523,7 +4532,7 @@
         <v>284</v>
       </c>
       <c r="B308" s="6" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C308" s="4"/>
     </row>
@@ -4531,8 +4540,8 @@
       <c r="A309" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="B309" s="9" t="s">
-        <v>298</v>
+      <c r="B309" s="6" t="s">
+        <v>296</v>
       </c>
       <c r="C309" s="4"/>
     </row>
@@ -4541,7 +4550,7 @@
         <v>284</v>
       </c>
       <c r="B310" s="6" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C310" s="4"/>
     </row>
@@ -4549,8 +4558,8 @@
       <c r="A311" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="B311" s="6" t="s">
-        <v>300</v>
+      <c r="B311" s="9" t="s">
+        <v>298</v>
       </c>
       <c r="C311" s="4"/>
     </row>
@@ -4559,7 +4568,7 @@
         <v>284</v>
       </c>
       <c r="B312" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C312" s="4"/>
     </row>
@@ -4568,7 +4577,7 @@
         <v>284</v>
       </c>
       <c r="B313" s="6" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C313" s="4"/>
     </row>
@@ -4577,7 +4586,7 @@
         <v>284</v>
       </c>
       <c r="B314" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C314" s="4"/>
     </row>
@@ -4586,7 +4595,7 @@
         <v>284</v>
       </c>
       <c r="B315" s="6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C315" s="4"/>
     </row>
@@ -4595,7 +4604,7 @@
         <v>284</v>
       </c>
       <c r="B316" s="6" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C316" s="4"/>
     </row>
@@ -4604,7 +4613,7 @@
         <v>284</v>
       </c>
       <c r="B317" s="6" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C317" s="4"/>
     </row>
@@ -4613,7 +4622,7 @@
         <v>284</v>
       </c>
       <c r="B318" s="6" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C318" s="4"/>
     </row>
@@ -4622,7 +4631,7 @@
         <v>284</v>
       </c>
       <c r="B319" s="6" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C319" s="4"/>
     </row>
@@ -4631,7 +4640,7 @@
         <v>284</v>
       </c>
       <c r="B320" s="6" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C320" s="4"/>
     </row>
@@ -4640,7 +4649,7 @@
         <v>284</v>
       </c>
       <c r="B321" s="6" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C321" s="4"/>
     </row>
@@ -4649,7 +4658,7 @@
         <v>284</v>
       </c>
       <c r="B322" s="6" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C322" s="4"/>
     </row>
@@ -4658,7 +4667,7 @@
         <v>284</v>
       </c>
       <c r="B323" s="6" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C323" s="4"/>
     </row>
@@ -4667,7 +4676,7 @@
         <v>284</v>
       </c>
       <c r="B324" s="6" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C324" s="4"/>
     </row>
@@ -4676,7 +4685,7 @@
         <v>284</v>
       </c>
       <c r="B325" s="6" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C325" s="4"/>
     </row>
@@ -4685,7 +4694,7 @@
         <v>284</v>
       </c>
       <c r="B326" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C326" s="4"/>
     </row>
@@ -4694,7 +4703,7 @@
         <v>284</v>
       </c>
       <c r="B327" s="6" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C327" s="4"/>
     </row>
@@ -4703,7 +4712,7 @@
         <v>284</v>
       </c>
       <c r="B328" s="6" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C328" s="4"/>
     </row>
@@ -4712,7 +4721,7 @@
         <v>284</v>
       </c>
       <c r="B329" s="6" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C329" s="4"/>
     </row>
@@ -4721,7 +4730,7 @@
         <v>284</v>
       </c>
       <c r="B330" s="6" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C330" s="4"/>
     </row>
@@ -4730,7 +4739,7 @@
         <v>284</v>
       </c>
       <c r="B331" s="6" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C331" s="4"/>
     </row>
@@ -4739,7 +4748,7 @@
         <v>284</v>
       </c>
       <c r="B332" s="6" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C332" s="4"/>
     </row>
@@ -4748,34 +4757,34 @@
         <v>284</v>
       </c>
       <c r="B333" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="C333" s="4"/>
+    </row>
+    <row r="334" spans="1:3" ht="21">
+      <c r="A334" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="B334" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="C334" s="4"/>
+    </row>
+    <row r="335" spans="1:3" ht="21">
+      <c r="A335" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="B335" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="C333" s="4"/>
-    </row>
-    <row r="334" spans="1:3" ht="21">
-      <c r="B334" s="7"/>
-      <c r="C334" s="4"/>
-    </row>
-    <row r="335" spans="1:3" ht="21">
-      <c r="B335" s="7"/>
       <c r="C335" s="4"/>
     </row>
     <row r="336" spans="1:3" ht="21">
-      <c r="A336" s="8" t="s">
-        <v>323</v>
-      </c>
-      <c r="B336" s="6" t="s">
-        <v>324</v>
-      </c>
+      <c r="B336" s="7"/>
       <c r="C336" s="4"/>
     </row>
     <row r="337" spans="1:3" ht="21">
-      <c r="A337" s="8" t="s">
-        <v>323</v>
-      </c>
-      <c r="B337" s="6" t="s">
-        <v>325</v>
-      </c>
+      <c r="B337" s="7"/>
       <c r="C337" s="4"/>
     </row>
     <row r="338" spans="1:3" ht="21">
@@ -4783,7 +4792,7 @@
         <v>323</v>
       </c>
       <c r="B338" s="6" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C338" s="4"/>
     </row>
@@ -4792,7 +4801,7 @@
         <v>323</v>
       </c>
       <c r="B339" s="6" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C339" s="4"/>
     </row>
@@ -4801,7 +4810,7 @@
         <v>323</v>
       </c>
       <c r="B340" s="6" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C340" s="4"/>
     </row>
@@ -4810,7 +4819,7 @@
         <v>323</v>
       </c>
       <c r="B341" s="6" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C341" s="4"/>
     </row>
@@ -4819,7 +4828,7 @@
         <v>323</v>
       </c>
       <c r="B342" s="6" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C342" s="4"/>
     </row>
@@ -4828,7 +4837,7 @@
         <v>323</v>
       </c>
       <c r="B343" s="6" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C343" s="4"/>
     </row>
@@ -4836,8 +4845,8 @@
       <c r="A344" s="8" t="s">
         <v>323</v>
       </c>
-      <c r="B344" s="9" t="s">
-        <v>332</v>
+      <c r="B344" s="6" t="s">
+        <v>330</v>
       </c>
       <c r="C344" s="4"/>
     </row>
@@ -4846,7 +4855,7 @@
         <v>323</v>
       </c>
       <c r="B345" s="6" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C345" s="4"/>
     </row>
@@ -4854,8 +4863,8 @@
       <c r="A346" s="8" t="s">
         <v>323</v>
       </c>
-      <c r="B346" s="6" t="s">
-        <v>334</v>
+      <c r="B346" s="9" t="s">
+        <v>332</v>
       </c>
       <c r="C346" s="4"/>
     </row>
@@ -4864,7 +4873,7 @@
         <v>323</v>
       </c>
       <c r="B347" s="6" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C347" s="4"/>
     </row>
@@ -4873,7 +4882,7 @@
         <v>323</v>
       </c>
       <c r="B348" s="6" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C348" s="4"/>
     </row>
@@ -4882,7 +4891,7 @@
         <v>323</v>
       </c>
       <c r="B349" s="6" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C349" s="4"/>
     </row>
@@ -4891,7 +4900,7 @@
         <v>323</v>
       </c>
       <c r="B350" s="6" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C350" s="4"/>
     </row>
@@ -4900,7 +4909,7 @@
         <v>323</v>
       </c>
       <c r="B351" s="6" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C351" s="4"/>
     </row>
@@ -4909,7 +4918,7 @@
         <v>323</v>
       </c>
       <c r="B352" s="6" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C352" s="4"/>
     </row>
@@ -4918,34 +4927,34 @@
         <v>323</v>
       </c>
       <c r="B353" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="C353" s="4"/>
+    </row>
+    <row r="354" spans="1:3" ht="21">
+      <c r="A354" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="B354" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="C354" s="4"/>
+    </row>
+    <row r="355" spans="1:3" ht="21">
+      <c r="A355" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="B355" s="6" t="s">
         <v>341</v>
       </c>
-      <c r="C353" s="4"/>
-    </row>
-    <row r="354" spans="1:3" ht="21">
-      <c r="B354" s="7"/>
-      <c r="C354" s="4"/>
-    </row>
-    <row r="355" spans="1:3" ht="21">
-      <c r="B355" s="7"/>
       <c r="C355" s="4"/>
     </row>
     <row r="356" spans="1:3" ht="21">
-      <c r="A356" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="B356" s="6" t="s">
-        <v>343</v>
-      </c>
+      <c r="B356" s="7"/>
       <c r="C356" s="4"/>
     </row>
     <row r="357" spans="1:3" ht="21">
-      <c r="A357" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="B357" s="6" t="s">
-        <v>344</v>
-      </c>
+      <c r="B357" s="7"/>
       <c r="C357" s="4"/>
     </row>
     <row r="358" spans="1:3" ht="21">
@@ -4953,7 +4962,7 @@
         <v>342</v>
       </c>
       <c r="B358" s="6" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C358" s="4"/>
     </row>
@@ -4962,7 +4971,7 @@
         <v>342</v>
       </c>
       <c r="B359" s="6" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C359" s="4"/>
     </row>
@@ -4971,7 +4980,7 @@
         <v>342</v>
       </c>
       <c r="B360" s="6" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C360" s="4"/>
     </row>
@@ -4980,7 +4989,7 @@
         <v>342</v>
       </c>
       <c r="B361" s="6" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C361" s="4"/>
     </row>
@@ -4989,7 +4998,7 @@
         <v>342</v>
       </c>
       <c r="B362" s="6" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C362" s="4"/>
     </row>
@@ -4998,7 +5007,7 @@
         <v>342</v>
       </c>
       <c r="B363" s="6" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C363" s="4"/>
     </row>
@@ -5007,7 +5016,7 @@
         <v>342</v>
       </c>
       <c r="B364" s="6" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C364" s="4"/>
     </row>
@@ -5016,7 +5025,7 @@
         <v>342</v>
       </c>
       <c r="B365" s="6" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C365" s="4"/>
     </row>
@@ -5025,7 +5034,7 @@
         <v>342</v>
       </c>
       <c r="B366" s="6" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C366" s="4"/>
     </row>
@@ -5034,7 +5043,7 @@
         <v>342</v>
       </c>
       <c r="B367" s="6" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C367" s="4"/>
     </row>
@@ -5043,7 +5052,7 @@
         <v>342</v>
       </c>
       <c r="B368" s="6" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C368" s="4"/>
     </row>
@@ -5052,7 +5061,7 @@
         <v>342</v>
       </c>
       <c r="B369" s="6" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C369" s="4"/>
     </row>
@@ -5061,7 +5070,7 @@
         <v>342</v>
       </c>
       <c r="B370" s="6" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C370" s="4"/>
     </row>
@@ -5070,7 +5079,7 @@
         <v>342</v>
       </c>
       <c r="B371" s="6" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C371" s="4"/>
     </row>
@@ -5079,7 +5088,7 @@
         <v>342</v>
       </c>
       <c r="B372" s="6" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C372" s="4"/>
     </row>
@@ -5088,7 +5097,7 @@
         <v>342</v>
       </c>
       <c r="B373" s="6" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C373" s="4"/>
     </row>
@@ -5097,7 +5106,7 @@
         <v>342</v>
       </c>
       <c r="B374" s="6" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C374" s="4"/>
     </row>
@@ -5106,7 +5115,7 @@
         <v>342</v>
       </c>
       <c r="B375" s="6" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C375" s="4"/>
     </row>
@@ -5115,7 +5124,7 @@
         <v>342</v>
       </c>
       <c r="B376" s="6" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C376" s="4"/>
     </row>
@@ -5124,7 +5133,7 @@
         <v>342</v>
       </c>
       <c r="B377" s="6" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C377" s="4"/>
     </row>
@@ -5133,7 +5142,7 @@
         <v>342</v>
       </c>
       <c r="B378" s="6" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C378" s="4"/>
     </row>
@@ -5142,7 +5151,7 @@
         <v>342</v>
       </c>
       <c r="B379" s="6" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C379" s="4"/>
     </row>
@@ -5151,7 +5160,7 @@
         <v>342</v>
       </c>
       <c r="B380" s="6" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C380" s="4"/>
     </row>
@@ -5160,7 +5169,7 @@
         <v>342</v>
       </c>
       <c r="B381" s="6" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C381" s="4"/>
     </row>
@@ -5169,7 +5178,7 @@
         <v>342</v>
       </c>
       <c r="B382" s="6" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C382" s="4"/>
     </row>
@@ -5178,7 +5187,7 @@
         <v>342</v>
       </c>
       <c r="B383" s="6" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C383" s="4"/>
     </row>
@@ -5187,7 +5196,7 @@
         <v>342</v>
       </c>
       <c r="B384" s="6" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C384" s="4"/>
     </row>
@@ -5196,7 +5205,7 @@
         <v>342</v>
       </c>
       <c r="B385" s="6" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C385" s="4"/>
     </row>
@@ -5205,7 +5214,7 @@
         <v>342</v>
       </c>
       <c r="B386" s="6" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C386" s="4"/>
     </row>
@@ -5214,7 +5223,7 @@
         <v>342</v>
       </c>
       <c r="B387" s="6" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C387" s="4"/>
     </row>
@@ -5223,7 +5232,7 @@
         <v>342</v>
       </c>
       <c r="B388" s="6" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C388" s="4"/>
     </row>
@@ -5232,7 +5241,7 @@
         <v>342</v>
       </c>
       <c r="B389" s="6" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C389" s="4"/>
     </row>
@@ -5241,7 +5250,7 @@
         <v>342</v>
       </c>
       <c r="B390" s="6" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C390" s="4"/>
     </row>
@@ -5250,7 +5259,7 @@
         <v>342</v>
       </c>
       <c r="B391" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C391" s="4"/>
     </row>
@@ -5259,7 +5268,7 @@
         <v>342</v>
       </c>
       <c r="B392" s="6" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C392" s="4"/>
     </row>
@@ -5268,7 +5277,7 @@
         <v>342</v>
       </c>
       <c r="B393" s="6" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C393" s="4"/>
     </row>
@@ -5277,7 +5286,7 @@
         <v>342</v>
       </c>
       <c r="B394" s="6" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C394" s="4"/>
     </row>
@@ -5286,7 +5295,7 @@
         <v>342</v>
       </c>
       <c r="B395" s="6" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C395" s="4"/>
     </row>
@@ -5295,7 +5304,7 @@
         <v>342</v>
       </c>
       <c r="B396" s="6" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C396" s="4"/>
     </row>
@@ -5304,7 +5313,7 @@
         <v>342</v>
       </c>
       <c r="B397" s="6" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C397" s="4"/>
     </row>
@@ -5313,7 +5322,7 @@
         <v>342</v>
       </c>
       <c r="B398" s="6" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C398" s="4"/>
     </row>
@@ -5322,34 +5331,34 @@
         <v>342</v>
       </c>
       <c r="B399" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="C399" s="4"/>
+    </row>
+    <row r="400" spans="1:3" ht="21">
+      <c r="A400" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="B400" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="C400" s="4"/>
+    </row>
+    <row r="401" spans="1:3" ht="21">
+      <c r="A401" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="B401" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="C399" s="4"/>
-    </row>
-    <row r="400" spans="1:3" ht="21">
-      <c r="B400" s="7"/>
-      <c r="C400" s="4"/>
-    </row>
-    <row r="401" spans="1:3" ht="21">
-      <c r="B401" s="7"/>
       <c r="C401" s="4"/>
     </row>
     <row r="402" spans="1:3" ht="21">
-      <c r="A402" s="8" t="s">
-        <v>386</v>
-      </c>
-      <c r="B402" s="6" t="s">
-        <v>387</v>
-      </c>
+      <c r="B402" s="7"/>
       <c r="C402" s="4"/>
     </row>
     <row r="403" spans="1:3" ht="21">
-      <c r="A403" s="8" t="s">
-        <v>386</v>
-      </c>
-      <c r="B403" s="6" t="s">
-        <v>388</v>
-      </c>
+      <c r="B403" s="7"/>
       <c r="C403" s="4"/>
     </row>
     <row r="404" spans="1:3" ht="21">
@@ -5357,7 +5366,7 @@
         <v>386</v>
       </c>
       <c r="B404" s="6" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C404" s="4"/>
     </row>
@@ -5366,7 +5375,7 @@
         <v>386</v>
       </c>
       <c r="B405" s="6" t="s">
-        <v>88</v>
+        <v>388</v>
       </c>
       <c r="C405" s="4"/>
     </row>
@@ -5375,7 +5384,7 @@
         <v>386</v>
       </c>
       <c r="B406" s="6" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C406" s="4"/>
     </row>
@@ -5384,34 +5393,34 @@
         <v>386</v>
       </c>
       <c r="B407" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C407" s="4"/>
+    </row>
+    <row r="408" spans="1:3" ht="21">
+      <c r="A408" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="B408" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="C408" s="4"/>
+    </row>
+    <row r="409" spans="1:3" ht="21">
+      <c r="A409" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="B409" s="6" t="s">
         <v>391</v>
       </c>
-      <c r="C407" s="4"/>
-    </row>
-    <row r="408" spans="1:3" ht="21">
-      <c r="B408" s="7"/>
-      <c r="C408" s="4"/>
-    </row>
-    <row r="409" spans="1:3" ht="21">
-      <c r="B409" s="7"/>
       <c r="C409" s="4"/>
     </row>
     <row r="410" spans="1:3" ht="21">
-      <c r="A410" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="B410" s="6" t="s">
-        <v>393</v>
-      </c>
+      <c r="B410" s="7"/>
       <c r="C410" s="4"/>
     </row>
     <row r="411" spans="1:3" ht="21">
-      <c r="A411" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="B411" s="6" t="s">
-        <v>394</v>
-      </c>
+      <c r="B411" s="7"/>
       <c r="C411" s="4"/>
     </row>
     <row r="412" spans="1:3" ht="21">
@@ -5419,7 +5428,7 @@
         <v>392</v>
       </c>
       <c r="B412" s="6" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C412" s="4"/>
     </row>
@@ -5428,7 +5437,7 @@
         <v>392</v>
       </c>
       <c r="B413" s="6" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C413" s="4"/>
     </row>
@@ -5437,7 +5446,7 @@
         <v>392</v>
       </c>
       <c r="B414" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C414" s="4"/>
     </row>
@@ -5446,7 +5455,7 @@
         <v>392</v>
       </c>
       <c r="B415" s="6" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C415" s="4"/>
     </row>
@@ -5455,7 +5464,7 @@
         <v>392</v>
       </c>
       <c r="B416" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C416" s="4"/>
     </row>
@@ -5464,7 +5473,7 @@
         <v>392</v>
       </c>
       <c r="B417" s="6" t="s">
-        <v>272</v>
+        <v>398</v>
       </c>
       <c r="C417" s="4"/>
     </row>
@@ -5473,7 +5482,7 @@
         <v>392</v>
       </c>
       <c r="B418" s="6" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C418" s="4"/>
     </row>
@@ -5482,7 +5491,7 @@
         <v>392</v>
       </c>
       <c r="B419" s="6" t="s">
-        <v>401</v>
+        <v>272</v>
       </c>
       <c r="C419" s="4"/>
     </row>
@@ -5491,7 +5500,7 @@
         <v>392</v>
       </c>
       <c r="B420" s="6" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C420" s="4"/>
     </row>
@@ -5500,7 +5509,7 @@
         <v>392</v>
       </c>
       <c r="B421" s="6" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C421" s="4"/>
     </row>
@@ -5509,7 +5518,7 @@
         <v>392</v>
       </c>
       <c r="B422" s="6" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C422" s="4"/>
     </row>
@@ -5518,7 +5527,7 @@
         <v>392</v>
       </c>
       <c r="B423" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C423" s="4"/>
     </row>
@@ -5527,7 +5536,7 @@
         <v>392</v>
       </c>
       <c r="B424" s="6" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C424" s="4"/>
     </row>
@@ -5536,7 +5545,7 @@
         <v>392</v>
       </c>
       <c r="B425" s="6" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C425" s="4"/>
     </row>
@@ -5545,7 +5554,7 @@
         <v>392</v>
       </c>
       <c r="B426" s="6" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C426" s="4"/>
     </row>
@@ -5554,7 +5563,7 @@
         <v>392</v>
       </c>
       <c r="B427" s="6" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C427" s="4"/>
     </row>
@@ -5563,7 +5572,7 @@
         <v>392</v>
       </c>
       <c r="B428" s="6" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C428" s="4"/>
     </row>
@@ -5572,7 +5581,7 @@
         <v>392</v>
       </c>
       <c r="B429" s="6" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C429" s="4"/>
     </row>
@@ -5581,7 +5590,7 @@
         <v>392</v>
       </c>
       <c r="B430" s="6" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C430" s="4"/>
     </row>
@@ -5590,7 +5599,7 @@
         <v>392</v>
       </c>
       <c r="B431" s="6" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C431" s="4"/>
     </row>
@@ -5599,7 +5608,7 @@
         <v>392</v>
       </c>
       <c r="B432" s="6" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C432" s="4"/>
     </row>
@@ -5608,7 +5617,7 @@
         <v>392</v>
       </c>
       <c r="B433" s="6" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C433" s="4"/>
     </row>
@@ -5617,7 +5626,7 @@
         <v>392</v>
       </c>
       <c r="B434" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C434" s="4"/>
     </row>
@@ -5626,7 +5635,7 @@
         <v>392</v>
       </c>
       <c r="B435" s="6" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C435" s="4"/>
     </row>
@@ -5635,7 +5644,7 @@
         <v>392</v>
       </c>
       <c r="B436" s="6" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C436" s="4"/>
     </row>
@@ -5644,7 +5653,7 @@
         <v>392</v>
       </c>
       <c r="B437" s="6" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C437" s="4"/>
     </row>
@@ -5653,7 +5662,7 @@
         <v>392</v>
       </c>
       <c r="B438" s="6" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C438" s="4"/>
     </row>
@@ -5662,7 +5671,7 @@
         <v>392</v>
       </c>
       <c r="B439" s="6" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C439" s="4"/>
     </row>
@@ -5671,7 +5680,7 @@
         <v>392</v>
       </c>
       <c r="B440" s="6" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C440" s="4"/>
     </row>
@@ -5680,7 +5689,7 @@
         <v>392</v>
       </c>
       <c r="B441" s="6" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C441" s="4"/>
     </row>
@@ -5689,7 +5698,7 @@
         <v>392</v>
       </c>
       <c r="B442" s="6" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C442" s="4"/>
     </row>
@@ -5698,7 +5707,7 @@
         <v>392</v>
       </c>
       <c r="B443" s="6" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C443" s="4"/>
     </row>
@@ -5707,7 +5716,7 @@
         <v>392</v>
       </c>
       <c r="B444" s="6" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C444" s="4"/>
     </row>
@@ -5716,7 +5725,7 @@
         <v>392</v>
       </c>
       <c r="B445" s="6" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C445" s="4"/>
     </row>
@@ -5725,7 +5734,7 @@
         <v>392</v>
       </c>
       <c r="B446" s="6" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C446" s="4"/>
     </row>
@@ -5734,7 +5743,7 @@
         <v>392</v>
       </c>
       <c r="B447" s="6" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C447" s="4"/>
     </row>
@@ -5743,7 +5752,7 @@
         <v>392</v>
       </c>
       <c r="B448" s="6" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C448" s="4"/>
     </row>
@@ -5752,7 +5761,7 @@
         <v>392</v>
       </c>
       <c r="B449" s="6" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C449" s="4"/>
     </row>
@@ -5761,7 +5770,7 @@
         <v>392</v>
       </c>
       <c r="B450" s="6" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C450" s="4"/>
     </row>
@@ -5770,7 +5779,7 @@
         <v>392</v>
       </c>
       <c r="B451" s="6" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C451" s="4"/>
     </row>
@@ -5779,7 +5788,7 @@
         <v>392</v>
       </c>
       <c r="B452" s="6" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C452" s="4"/>
     </row>
@@ -5788,7 +5797,7 @@
         <v>392</v>
       </c>
       <c r="B453" s="6" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C453" s="4"/>
     </row>
@@ -5797,7 +5806,7 @@
         <v>392</v>
       </c>
       <c r="B454" s="6" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C454" s="4"/>
     </row>
@@ -5806,7 +5815,7 @@
         <v>392</v>
       </c>
       <c r="B455" s="6" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C455" s="4"/>
     </row>
@@ -5815,7 +5824,7 @@
         <v>392</v>
       </c>
       <c r="B456" s="6" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C456" s="4"/>
     </row>
@@ -5824,7 +5833,7 @@
         <v>392</v>
       </c>
       <c r="B457" s="6" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C457" s="4"/>
     </row>
@@ -5833,7 +5842,7 @@
         <v>392</v>
       </c>
       <c r="B458" s="6" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C458" s="4"/>
     </row>
@@ -5842,7 +5851,7 @@
         <v>392</v>
       </c>
       <c r="B459" s="6" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C459" s="4"/>
     </row>
@@ -5851,7 +5860,7 @@
         <v>392</v>
       </c>
       <c r="B460" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C460" s="4"/>
     </row>
@@ -5860,7 +5869,7 @@
         <v>392</v>
       </c>
       <c r="B461" s="6" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C461" s="4"/>
     </row>
@@ -5869,7 +5878,7 @@
         <v>392</v>
       </c>
       <c r="B462" s="6" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C462" s="4"/>
     </row>
@@ -5878,7 +5887,7 @@
         <v>392</v>
       </c>
       <c r="B463" s="6" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C463" s="4"/>
     </row>
@@ -5887,7 +5896,7 @@
         <v>392</v>
       </c>
       <c r="B464" s="6" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C464" s="4"/>
     </row>
@@ -5896,7 +5905,7 @@
         <v>392</v>
       </c>
       <c r="B465" s="6" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C465" s="4"/>
     </row>
@@ -5905,7 +5914,7 @@
         <v>392</v>
       </c>
       <c r="B466" s="6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C466" s="4"/>
     </row>
@@ -5914,7 +5923,7 @@
         <v>392</v>
       </c>
       <c r="B467" s="6" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C467" s="4"/>
     </row>
@@ -5923,7 +5932,7 @@
         <v>392</v>
       </c>
       <c r="B468" s="6" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C468" s="4"/>
     </row>
@@ -5932,35 +5941,35 @@
         <v>392</v>
       </c>
       <c r="B469" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="C469" s="4"/>
+    </row>
+    <row r="470" spans="1:3" ht="21">
+      <c r="A470" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="B470" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="C470" s="4"/>
+    </row>
+    <row r="471" spans="1:3" ht="21">
+      <c r="A471" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="B471" s="6" t="s">
         <v>451</v>
       </c>
-      <c r="C469" s="4"/>
-    </row>
-    <row r="470" spans="1:3" ht="21">
-      <c r="B470" s="7"/>
-      <c r="C470" s="4"/>
-    </row>
-    <row r="471" spans="1:3" ht="21">
-      <c r="A471" s="8"/>
-      <c r="B471" s="7"/>
       <c r="C471" s="4"/>
     </row>
     <row r="472" spans="1:3" ht="21">
-      <c r="A472" s="5" t="s">
-        <v>452</v>
-      </c>
-      <c r="B472" s="6" t="s">
-        <v>453</v>
-      </c>
+      <c r="B472" s="7"/>
       <c r="C472" s="4"/>
     </row>
     <row r="473" spans="1:3" ht="21">
-      <c r="A473" s="5" t="s">
-        <v>452</v>
-      </c>
-      <c r="B473" s="6" t="s">
-        <v>454</v>
-      </c>
+      <c r="A473" s="8"/>
+      <c r="B473" s="7"/>
       <c r="C473" s="4"/>
     </row>
     <row r="474" spans="1:3" ht="21">
@@ -5968,7 +5977,7 @@
         <v>452</v>
       </c>
       <c r="B474" s="6" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C474" s="4"/>
     </row>
@@ -5977,7 +5986,7 @@
         <v>452</v>
       </c>
       <c r="B475" s="6" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C475" s="4"/>
     </row>
@@ -5986,7 +5995,7 @@
         <v>452</v>
       </c>
       <c r="B476" s="6" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C476" s="4"/>
     </row>
@@ -5995,7 +6004,7 @@
         <v>452</v>
       </c>
       <c r="B477" s="6" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C477" s="4"/>
     </row>
@@ -6004,7 +6013,7 @@
         <v>452</v>
       </c>
       <c r="B478" s="6" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C478" s="4"/>
     </row>
@@ -6013,7 +6022,7 @@
         <v>452</v>
       </c>
       <c r="B479" s="6" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C479" s="4"/>
     </row>
@@ -6022,7 +6031,7 @@
         <v>452</v>
       </c>
       <c r="B480" s="6" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C480" s="4"/>
     </row>
@@ -6031,457 +6040,475 @@
         <v>452</v>
       </c>
       <c r="B481" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="C481" s="4"/>
+    </row>
+    <row r="482" spans="1:3" ht="21">
+      <c r="A482" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="B482" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="C482" s="4"/>
+    </row>
+    <row r="483" spans="1:3" ht="21">
+      <c r="A483" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="B483" s="6" t="s">
         <v>462</v>
       </c>
-      <c r="C481" s="4"/>
+      <c r="C483" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1"/>
-    <hyperlink ref="B7" r:id="rId2"/>
-    <hyperlink ref="B8" r:id="rId3"/>
-    <hyperlink ref="B9" r:id="rId4"/>
-    <hyperlink ref="B10" r:id="rId5"/>
-    <hyperlink ref="B11" r:id="rId6"/>
-    <hyperlink ref="B12" r:id="rId7"/>
-    <hyperlink ref="B13" r:id="rId8"/>
-    <hyperlink ref="B14" r:id="rId9"/>
-    <hyperlink ref="B15" r:id="rId10"/>
-    <hyperlink ref="B16" r:id="rId11"/>
-    <hyperlink ref="B17" r:id="rId12"/>
-    <hyperlink ref="B18" r:id="rId13"/>
-    <hyperlink ref="B19" r:id="rId14"/>
-    <hyperlink ref="B20" r:id="rId15"/>
-    <hyperlink ref="B21" r:id="rId16"/>
-    <hyperlink ref="B22" r:id="rId17"/>
-    <hyperlink ref="B23" r:id="rId18"/>
-    <hyperlink ref="B24" r:id="rId19"/>
-    <hyperlink ref="B25" r:id="rId20"/>
-    <hyperlink ref="B26" r:id="rId21"/>
-    <hyperlink ref="B27" r:id="rId22"/>
-    <hyperlink ref="B28" r:id="rId23"/>
-    <hyperlink ref="B29" r:id="rId24"/>
-    <hyperlink ref="B30" r:id="rId25"/>
-    <hyperlink ref="B31" r:id="rId26"/>
-    <hyperlink ref="B32" r:id="rId27"/>
-    <hyperlink ref="B33" r:id="rId28"/>
-    <hyperlink ref="B34" r:id="rId29"/>
-    <hyperlink ref="B35" r:id="rId30"/>
-    <hyperlink ref="B36" r:id="rId31"/>
-    <hyperlink ref="B37" r:id="rId32"/>
-    <hyperlink ref="B38" r:id="rId33"/>
-    <hyperlink ref="B39" r:id="rId34"/>
-    <hyperlink ref="B40" r:id="rId35"/>
-    <hyperlink ref="B41" r:id="rId36"/>
-    <hyperlink ref="B44" r:id="rId37"/>
-    <hyperlink ref="B45" r:id="rId38"/>
-    <hyperlink ref="B46" r:id="rId39"/>
-    <hyperlink ref="B47" r:id="rId40"/>
-    <hyperlink ref="B48" r:id="rId41"/>
-    <hyperlink ref="B49" r:id="rId42"/>
-    <hyperlink ref="B50" r:id="rId43"/>
-    <hyperlink ref="B51" r:id="rId44"/>
-    <hyperlink ref="B52" r:id="rId45"/>
-    <hyperlink ref="B53" r:id="rId46"/>
-    <hyperlink ref="B56" r:id="rId47"/>
-    <hyperlink ref="B57" r:id="rId48"/>
-    <hyperlink ref="B58" r:id="rId49"/>
-    <hyperlink ref="B60" r:id="rId50"/>
-    <hyperlink ref="B61" r:id="rId51"/>
-    <hyperlink ref="B62" r:id="rId52"/>
-    <hyperlink ref="B63" r:id="rId53"/>
-    <hyperlink ref="B64" r:id="rId54"/>
-    <hyperlink ref="B65" r:id="rId55"/>
-    <hyperlink ref="B66" r:id="rId56"/>
-    <hyperlink ref="B67" r:id="rId57"/>
-    <hyperlink ref="B68" r:id="rId58"/>
-    <hyperlink ref="B69" r:id="rId59"/>
-    <hyperlink ref="B70" r:id="rId60"/>
-    <hyperlink ref="B71" r:id="rId61"/>
-    <hyperlink ref="B72" r:id="rId62"/>
-    <hyperlink ref="B73" r:id="rId63"/>
-    <hyperlink ref="B74" r:id="rId64"/>
-    <hyperlink ref="B75" r:id="rId65"/>
-    <hyperlink ref="B76" r:id="rId66"/>
-    <hyperlink ref="B77" r:id="rId67"/>
-    <hyperlink ref="B78" r:id="rId68"/>
-    <hyperlink ref="B79" r:id="rId69"/>
-    <hyperlink ref="B80" r:id="rId70"/>
-    <hyperlink ref="B81" r:id="rId71"/>
-    <hyperlink ref="B82" r:id="rId72"/>
-    <hyperlink ref="B83" r:id="rId73"/>
-    <hyperlink ref="B84" r:id="rId74"/>
-    <hyperlink ref="B85" r:id="rId75"/>
-    <hyperlink ref="B86" r:id="rId76"/>
-    <hyperlink ref="B87" r:id="rId77"/>
-    <hyperlink ref="B88" r:id="rId78"/>
-    <hyperlink ref="B89" r:id="rId79"/>
-    <hyperlink ref="B90" r:id="rId80"/>
-    <hyperlink ref="B91" r:id="rId81"/>
-    <hyperlink ref="B92" r:id="rId82"/>
-    <hyperlink ref="B93" r:id="rId83"/>
-    <hyperlink ref="B94" r:id="rId84"/>
-    <hyperlink ref="B95" r:id="rId85"/>
-    <hyperlink ref="B96" r:id="rId86"/>
-    <hyperlink ref="B97" r:id="rId87"/>
-    <hyperlink ref="B98" r:id="rId88"/>
-    <hyperlink ref="B101" r:id="rId89"/>
-    <hyperlink ref="B102" r:id="rId90"/>
-    <hyperlink ref="B103" r:id="rId91"/>
-    <hyperlink ref="B104" r:id="rId92"/>
-    <hyperlink ref="B106" r:id="rId93" location=":~:text=We%20need%20to%20find%20a,set%20of%20points%20is%20minimum.&amp;text=In%20above%20figure%20optimum%20location,is%20minimum%20obtainable%20total%20distance."/>
-    <hyperlink ref="B107" r:id="rId94"/>
-    <hyperlink ref="B108" r:id="rId95"/>
-    <hyperlink ref="B109" r:id="rId96"/>
-    <hyperlink ref="B110" r:id="rId97"/>
-    <hyperlink ref="B111" r:id="rId98"/>
-    <hyperlink ref="B113" r:id="rId99"/>
-    <hyperlink ref="B114" r:id="rId100"/>
-    <hyperlink ref="B115" r:id="rId101"/>
-    <hyperlink ref="B116" r:id="rId102"/>
-    <hyperlink ref="B117" r:id="rId103"/>
-    <hyperlink ref="B118" r:id="rId104"/>
-    <hyperlink ref="B119" r:id="rId105"/>
-    <hyperlink ref="B120" r:id="rId106"/>
-    <hyperlink ref="B121" r:id="rId107"/>
-    <hyperlink ref="B122" r:id="rId108"/>
-    <hyperlink ref="B123" r:id="rId109"/>
-    <hyperlink ref="B124" r:id="rId110"/>
-    <hyperlink ref="B125" r:id="rId111"/>
-    <hyperlink ref="B126" r:id="rId112"/>
-    <hyperlink ref="B127" r:id="rId113"/>
-    <hyperlink ref="B128" r:id="rId114"/>
-    <hyperlink ref="B129" r:id="rId115"/>
-    <hyperlink ref="B130" r:id="rId116"/>
-    <hyperlink ref="B131" r:id="rId117"/>
-    <hyperlink ref="B132" r:id="rId118"/>
-    <hyperlink ref="B133" r:id="rId119"/>
-    <hyperlink ref="B134" r:id="rId120"/>
-    <hyperlink ref="B135" r:id="rId121"/>
-    <hyperlink ref="B136" r:id="rId122"/>
-    <hyperlink ref="B105" r:id="rId123"/>
-    <hyperlink ref="B112" r:id="rId124"/>
-    <hyperlink ref="B139" r:id="rId125"/>
-    <hyperlink ref="B140" r:id="rId126"/>
-    <hyperlink ref="B141" r:id="rId127"/>
-    <hyperlink ref="B142" r:id="rId128"/>
-    <hyperlink ref="B143" r:id="rId129"/>
-    <hyperlink ref="B144" r:id="rId130"/>
-    <hyperlink ref="B145" r:id="rId131"/>
-    <hyperlink ref="B146" r:id="rId132"/>
-    <hyperlink ref="B147" r:id="rId133"/>
-    <hyperlink ref="B148" r:id="rId134"/>
-    <hyperlink ref="B149" r:id="rId135"/>
-    <hyperlink ref="B150" r:id="rId136"/>
-    <hyperlink ref="B151" r:id="rId137"/>
-    <hyperlink ref="B152" r:id="rId138"/>
-    <hyperlink ref="B153" r:id="rId139"/>
-    <hyperlink ref="B154" r:id="rId140"/>
-    <hyperlink ref="B155" r:id="rId141"/>
-    <hyperlink ref="B156" r:id="rId142"/>
-    <hyperlink ref="B157" r:id="rId143"/>
-    <hyperlink ref="B158" r:id="rId144"/>
-    <hyperlink ref="B159" r:id="rId145"/>
-    <hyperlink ref="B160" r:id="rId146"/>
-    <hyperlink ref="B161" r:id="rId147"/>
-    <hyperlink ref="B162" r:id="rId148"/>
-    <hyperlink ref="B163" r:id="rId149"/>
-    <hyperlink ref="B166" r:id="rId150"/>
-    <hyperlink ref="B167" r:id="rId151"/>
-    <hyperlink ref="B168" r:id="rId152"/>
-    <hyperlink ref="B169" r:id="rId153"/>
-    <hyperlink ref="B170" r:id="rId154"/>
-    <hyperlink ref="B171" r:id="rId155"/>
-    <hyperlink ref="B172" r:id="rId156"/>
-    <hyperlink ref="B173" r:id="rId157"/>
-    <hyperlink ref="B174" r:id="rId158"/>
-    <hyperlink ref="B177" r:id="rId159"/>
-    <hyperlink ref="B178" r:id="rId160"/>
-    <hyperlink ref="B179" r:id="rId161"/>
-    <hyperlink ref="B180" r:id="rId162"/>
-    <hyperlink ref="B181" r:id="rId163"/>
-    <hyperlink ref="B182" r:id="rId164"/>
-    <hyperlink ref="B183" r:id="rId165"/>
-    <hyperlink ref="B184" r:id="rId166"/>
-    <hyperlink ref="B185" r:id="rId167"/>
-    <hyperlink ref="B186" r:id="rId168"/>
-    <hyperlink ref="B187" r:id="rId169"/>
-    <hyperlink ref="B188" r:id="rId170"/>
-    <hyperlink ref="B189" r:id="rId171"/>
-    <hyperlink ref="B190" r:id="rId172"/>
-    <hyperlink ref="B191" r:id="rId173"/>
-    <hyperlink ref="B192" r:id="rId174"/>
-    <hyperlink ref="B193" r:id="rId175"/>
-    <hyperlink ref="B194" r:id="rId176"/>
-    <hyperlink ref="B195" r:id="rId177"/>
-    <hyperlink ref="B196" r:id="rId178"/>
-    <hyperlink ref="B197" r:id="rId179" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010."/>
-    <hyperlink ref="B198" r:id="rId180"/>
-    <hyperlink ref="B199" r:id="rId181"/>
-    <hyperlink ref="B200" r:id="rId182"/>
-    <hyperlink ref="B201" r:id="rId183"/>
-    <hyperlink ref="B202" r:id="rId184"/>
-    <hyperlink ref="B203" r:id="rId185" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not."/>
-    <hyperlink ref="B204" r:id="rId186"/>
-    <hyperlink ref="B205" r:id="rId187"/>
-    <hyperlink ref="B206" r:id="rId188"/>
-    <hyperlink ref="B207" r:id="rId189"/>
-    <hyperlink ref="B208" r:id="rId190"/>
-    <hyperlink ref="B209" r:id="rId191"/>
-    <hyperlink ref="B210" r:id="rId192"/>
-    <hyperlink ref="B211" r:id="rId193"/>
-    <hyperlink ref="B214" r:id="rId194"/>
-    <hyperlink ref="B215" r:id="rId195"/>
-    <hyperlink ref="B216" r:id="rId196"/>
-    <hyperlink ref="B217" r:id="rId197"/>
-    <hyperlink ref="B218" r:id="rId198"/>
-    <hyperlink ref="B219" r:id="rId199"/>
-    <hyperlink ref="B220" r:id="rId200"/>
-    <hyperlink ref="B221" r:id="rId201"/>
-    <hyperlink ref="B222" r:id="rId202"/>
-    <hyperlink ref="B223" r:id="rId203"/>
-    <hyperlink ref="B224" r:id="rId204"/>
-    <hyperlink ref="B225" r:id="rId205"/>
-    <hyperlink ref="B226" r:id="rId206"/>
-    <hyperlink ref="B227" r:id="rId207"/>
-    <hyperlink ref="B228" r:id="rId208"/>
-    <hyperlink ref="B229" r:id="rId209"/>
-    <hyperlink ref="B230" r:id="rId210"/>
-    <hyperlink ref="B231" r:id="rId211"/>
-    <hyperlink ref="B232" r:id="rId212"/>
-    <hyperlink ref="B233" r:id="rId213"/>
-    <hyperlink ref="B234" r:id="rId214"/>
-    <hyperlink ref="B235" r:id="rId215"/>
-    <hyperlink ref="B238" r:id="rId216"/>
-    <hyperlink ref="B239" r:id="rId217"/>
-    <hyperlink ref="B240" r:id="rId218"/>
-    <hyperlink ref="B241" r:id="rId219"/>
-    <hyperlink ref="B242" r:id="rId220"/>
-    <hyperlink ref="B243" r:id="rId221"/>
-    <hyperlink ref="B244" r:id="rId222"/>
-    <hyperlink ref="B245" r:id="rId223"/>
-    <hyperlink ref="B246" r:id="rId224"/>
-    <hyperlink ref="B247" r:id="rId225"/>
-    <hyperlink ref="B248" r:id="rId226"/>
-    <hyperlink ref="B249" r:id="rId227"/>
-    <hyperlink ref="B250" r:id="rId228"/>
-    <hyperlink ref="B251" r:id="rId229"/>
-    <hyperlink ref="B252" r:id="rId230"/>
-    <hyperlink ref="B253" r:id="rId231"/>
-    <hyperlink ref="B254" r:id="rId232"/>
-    <hyperlink ref="B255" r:id="rId233"/>
-    <hyperlink ref="B256" r:id="rId234"/>
-    <hyperlink ref="B257" r:id="rId235" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S."/>
-    <hyperlink ref="B258" r:id="rId236"/>
-    <hyperlink ref="B259" r:id="rId237"/>
-    <hyperlink ref="B260" r:id="rId238"/>
-    <hyperlink ref="B261" r:id="rId239"/>
-    <hyperlink ref="B262" r:id="rId240"/>
-    <hyperlink ref="B263" r:id="rId241"/>
-    <hyperlink ref="B264" r:id="rId242"/>
-    <hyperlink ref="B265" r:id="rId243"/>
-    <hyperlink ref="B266" r:id="rId244"/>
-    <hyperlink ref="B267" r:id="rId245"/>
-    <hyperlink ref="B268" r:id="rId246"/>
-    <hyperlink ref="B269" r:id="rId247"/>
-    <hyperlink ref="B270" r:id="rId248"/>
-    <hyperlink ref="B271" r:id="rId249"/>
-    <hyperlink ref="B272" r:id="rId250"/>
-    <hyperlink ref="B275" r:id="rId251"/>
-    <hyperlink ref="B276" r:id="rId252"/>
-    <hyperlink ref="B277" r:id="rId253"/>
-    <hyperlink ref="B278" r:id="rId254"/>
-    <hyperlink ref="B279" r:id="rId255"/>
-    <hyperlink ref="B280" r:id="rId256"/>
-    <hyperlink ref="B281" r:id="rId257"/>
-    <hyperlink ref="B282" r:id="rId258"/>
-    <hyperlink ref="B283" r:id="rId259"/>
-    <hyperlink ref="B284" r:id="rId260"/>
-    <hyperlink ref="B285" r:id="rId261"/>
-    <hyperlink ref="B286" r:id="rId262"/>
-    <hyperlink ref="B287" r:id="rId263"/>
-    <hyperlink ref="B288" r:id="rId264"/>
-    <hyperlink ref="B289" r:id="rId265"/>
-    <hyperlink ref="B290" r:id="rId266"/>
-    <hyperlink ref="B291" r:id="rId267"/>
-    <hyperlink ref="B292" r:id="rId268"/>
-    <hyperlink ref="B293" r:id="rId269"/>
-    <hyperlink ref="B296" r:id="rId270"/>
-    <hyperlink ref="B297" r:id="rId271"/>
-    <hyperlink ref="B298" r:id="rId272"/>
-    <hyperlink ref="B299" r:id="rId273"/>
-    <hyperlink ref="B300" r:id="rId274"/>
-    <hyperlink ref="B301" r:id="rId275"/>
-    <hyperlink ref="B302" r:id="rId276"/>
-    <hyperlink ref="B303" r:id="rId277"/>
-    <hyperlink ref="B304" r:id="rId278"/>
-    <hyperlink ref="B305" r:id="rId279"/>
-    <hyperlink ref="B306" r:id="rId280" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)."/>
-    <hyperlink ref="B307" r:id="rId281"/>
-    <hyperlink ref="B308" r:id="rId282"/>
-    <hyperlink ref="B309" r:id="rId283"/>
-    <hyperlink ref="B310" r:id="rId284"/>
-    <hyperlink ref="B311" r:id="rId285"/>
-    <hyperlink ref="B312" r:id="rId286"/>
-    <hyperlink ref="B313" r:id="rId287"/>
-    <hyperlink ref="B314" r:id="rId288"/>
-    <hyperlink ref="B315" r:id="rId289"/>
-    <hyperlink ref="B316" r:id="rId290"/>
-    <hyperlink ref="B317" r:id="rId291"/>
-    <hyperlink ref="B318" r:id="rId292"/>
-    <hyperlink ref="B319" r:id="rId293"/>
-    <hyperlink ref="B320" r:id="rId294"/>
-    <hyperlink ref="B321" r:id="rId295"/>
-    <hyperlink ref="B322" r:id="rId296"/>
-    <hyperlink ref="B323" r:id="rId297"/>
-    <hyperlink ref="B324" r:id="rId298"/>
-    <hyperlink ref="B325" r:id="rId299"/>
-    <hyperlink ref="B326" r:id="rId300"/>
-    <hyperlink ref="B327" r:id="rId301"/>
-    <hyperlink ref="B328" r:id="rId302"/>
-    <hyperlink ref="B329" r:id="rId303"/>
-    <hyperlink ref="B330" r:id="rId304"/>
-    <hyperlink ref="B331" r:id="rId305"/>
-    <hyperlink ref="B332" r:id="rId306"/>
-    <hyperlink ref="B333" r:id="rId307"/>
-    <hyperlink ref="B336" r:id="rId308"/>
-    <hyperlink ref="B337" r:id="rId309"/>
-    <hyperlink ref="B338" r:id="rId310"/>
-    <hyperlink ref="B339" r:id="rId311"/>
-    <hyperlink ref="B340" r:id="rId312"/>
-    <hyperlink ref="B341" r:id="rId313"/>
-    <hyperlink ref="B342" r:id="rId314"/>
-    <hyperlink ref="B343" r:id="rId315"/>
-    <hyperlink ref="B344" r:id="rId316"/>
-    <hyperlink ref="B345" r:id="rId317"/>
-    <hyperlink ref="B346" r:id="rId318"/>
-    <hyperlink ref="B347" r:id="rId319"/>
-    <hyperlink ref="B348" r:id="rId320"/>
-    <hyperlink ref="B349" r:id="rId321"/>
-    <hyperlink ref="B350" r:id="rId322"/>
-    <hyperlink ref="B351" r:id="rId323"/>
-    <hyperlink ref="B352" r:id="rId324"/>
-    <hyperlink ref="B353" r:id="rId325"/>
-    <hyperlink ref="B357" r:id="rId326"/>
-    <hyperlink ref="B358" r:id="rId327"/>
-    <hyperlink ref="B359" r:id="rId328"/>
-    <hyperlink ref="B360" r:id="rId329"/>
-    <hyperlink ref="B361" r:id="rId330"/>
-    <hyperlink ref="B362" r:id="rId331"/>
-    <hyperlink ref="B363" r:id="rId332"/>
-    <hyperlink ref="B364" r:id="rId333"/>
-    <hyperlink ref="B365" r:id="rId334"/>
-    <hyperlink ref="B366" r:id="rId335"/>
-    <hyperlink ref="B367" r:id="rId336"/>
-    <hyperlink ref="B368" r:id="rId337"/>
-    <hyperlink ref="B369" r:id="rId338"/>
-    <hyperlink ref="B370" r:id="rId339"/>
-    <hyperlink ref="B371" r:id="rId340"/>
-    <hyperlink ref="B372" r:id="rId341"/>
-    <hyperlink ref="B373" r:id="rId342"/>
-    <hyperlink ref="B374" r:id="rId343"/>
-    <hyperlink ref="B375" r:id="rId344"/>
-    <hyperlink ref="B376" r:id="rId345"/>
-    <hyperlink ref="B377" r:id="rId346"/>
-    <hyperlink ref="B378" r:id="rId347"/>
-    <hyperlink ref="B379" r:id="rId348" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color."/>
-    <hyperlink ref="B380" r:id="rId349"/>
-    <hyperlink ref="B381" r:id="rId350"/>
-    <hyperlink ref="B382" r:id="rId351"/>
-    <hyperlink ref="B383" r:id="rId352"/>
-    <hyperlink ref="B384" r:id="rId353"/>
-    <hyperlink ref="B385" r:id="rId354"/>
-    <hyperlink ref="B386" r:id="rId355"/>
-    <hyperlink ref="B387" r:id="rId356"/>
-    <hyperlink ref="B388" r:id="rId357"/>
-    <hyperlink ref="B389" r:id="rId358"/>
-    <hyperlink ref="B390" r:id="rId359"/>
-    <hyperlink ref="B391" r:id="rId360"/>
-    <hyperlink ref="B392" r:id="rId361"/>
-    <hyperlink ref="B393" r:id="rId362"/>
-    <hyperlink ref="B394" r:id="rId363"/>
-    <hyperlink ref="B396" r:id="rId364"/>
-    <hyperlink ref="B395" r:id="rId365"/>
-    <hyperlink ref="B397" r:id="rId366"/>
-    <hyperlink ref="B398" r:id="rId367"/>
-    <hyperlink ref="B399" r:id="rId368"/>
-    <hyperlink ref="B402" r:id="rId369"/>
-    <hyperlink ref="B403" r:id="rId370"/>
-    <hyperlink ref="B404" r:id="rId371"/>
-    <hyperlink ref="B405" r:id="rId372"/>
-    <hyperlink ref="B406" r:id="rId373"/>
-    <hyperlink ref="B407" r:id="rId374"/>
-    <hyperlink ref="B410" r:id="rId375"/>
-    <hyperlink ref="B411" r:id="rId376"/>
-    <hyperlink ref="B412" r:id="rId377"/>
-    <hyperlink ref="B413" r:id="rId378"/>
-    <hyperlink ref="B414" r:id="rId379"/>
-    <hyperlink ref="B415" r:id="rId380"/>
-    <hyperlink ref="B416" r:id="rId381"/>
-    <hyperlink ref="B417" r:id="rId382"/>
-    <hyperlink ref="B418" r:id="rId383"/>
-    <hyperlink ref="B419" r:id="rId384"/>
-    <hyperlink ref="B420" r:id="rId385"/>
-    <hyperlink ref="B421" r:id="rId386"/>
-    <hyperlink ref="B422" r:id="rId387"/>
-    <hyperlink ref="B423" r:id="rId388"/>
-    <hyperlink ref="B424" r:id="rId389"/>
-    <hyperlink ref="B425" r:id="rId390"/>
-    <hyperlink ref="B426" r:id="rId391"/>
-    <hyperlink ref="B427" r:id="rId392"/>
-    <hyperlink ref="B428" r:id="rId393"/>
-    <hyperlink ref="B429" r:id="rId394"/>
-    <hyperlink ref="B430" r:id="rId395"/>
-    <hyperlink ref="B431" r:id="rId396"/>
-    <hyperlink ref="B432" r:id="rId397"/>
-    <hyperlink ref="B433" r:id="rId398"/>
-    <hyperlink ref="B434" r:id="rId399"/>
-    <hyperlink ref="B435" r:id="rId400"/>
-    <hyperlink ref="B436" r:id="rId401"/>
-    <hyperlink ref="B437" r:id="rId402"/>
-    <hyperlink ref="B438" r:id="rId403"/>
-    <hyperlink ref="B439" r:id="rId404"/>
-    <hyperlink ref="B440" r:id="rId405"/>
-    <hyperlink ref="B441" r:id="rId406"/>
-    <hyperlink ref="B442" r:id="rId407"/>
-    <hyperlink ref="B443" r:id="rId408"/>
-    <hyperlink ref="B444" r:id="rId409"/>
-    <hyperlink ref="B445" r:id="rId410"/>
-    <hyperlink ref="B446" r:id="rId411"/>
-    <hyperlink ref="B447" r:id="rId412"/>
-    <hyperlink ref="B448" r:id="rId413"/>
-    <hyperlink ref="B449" r:id="rId414"/>
-    <hyperlink ref="B451" r:id="rId415"/>
-    <hyperlink ref="B450" r:id="rId416"/>
-    <hyperlink ref="B452" r:id="rId417"/>
-    <hyperlink ref="B453" r:id="rId418"/>
-    <hyperlink ref="B454" r:id="rId419"/>
-    <hyperlink ref="B455" r:id="rId420"/>
-    <hyperlink ref="B456" r:id="rId421"/>
-    <hyperlink ref="B457" r:id="rId422"/>
-    <hyperlink ref="B458" r:id="rId423"/>
-    <hyperlink ref="B459" r:id="rId424"/>
-    <hyperlink ref="B460" r:id="rId425"/>
-    <hyperlink ref="B461" r:id="rId426"/>
-    <hyperlink ref="B462" r:id="rId427"/>
-    <hyperlink ref="B469" r:id="rId428"/>
-    <hyperlink ref="B468" r:id="rId429"/>
-    <hyperlink ref="B467" r:id="rId430"/>
-    <hyperlink ref="B466" r:id="rId431"/>
-    <hyperlink ref="B465" r:id="rId432"/>
-    <hyperlink ref="B464" r:id="rId433"/>
-    <hyperlink ref="B463" r:id="rId434"/>
-    <hyperlink ref="B472" r:id="rId435"/>
-    <hyperlink ref="B473" r:id="rId436"/>
-    <hyperlink ref="B474" r:id="rId437"/>
-    <hyperlink ref="B475" r:id="rId438"/>
-    <hyperlink ref="B476" r:id="rId439"/>
-    <hyperlink ref="B477" r:id="rId440"/>
-    <hyperlink ref="B478" r:id="rId441"/>
-    <hyperlink ref="B481" r:id="rId442"/>
-    <hyperlink ref="B479" r:id="rId443"/>
-    <hyperlink ref="B480" r:id="rId444" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result."/>
-    <hyperlink ref="B356" r:id="rId445"/>
+    <hyperlink ref="B8" r:id="rId1"/>
+    <hyperlink ref="B9" r:id="rId2"/>
+    <hyperlink ref="B10" r:id="rId3"/>
+    <hyperlink ref="B11" r:id="rId4"/>
+    <hyperlink ref="B12" r:id="rId5"/>
+    <hyperlink ref="B13" r:id="rId6"/>
+    <hyperlink ref="B14" r:id="rId7"/>
+    <hyperlink ref="B15" r:id="rId8"/>
+    <hyperlink ref="B16" r:id="rId9"/>
+    <hyperlink ref="B17" r:id="rId10"/>
+    <hyperlink ref="B18" r:id="rId11"/>
+    <hyperlink ref="B19" r:id="rId12"/>
+    <hyperlink ref="B20" r:id="rId13"/>
+    <hyperlink ref="B21" r:id="rId14"/>
+    <hyperlink ref="B22" r:id="rId15"/>
+    <hyperlink ref="B23" r:id="rId16"/>
+    <hyperlink ref="B24" r:id="rId17"/>
+    <hyperlink ref="B25" r:id="rId18"/>
+    <hyperlink ref="B26" r:id="rId19"/>
+    <hyperlink ref="B27" r:id="rId20"/>
+    <hyperlink ref="B28" r:id="rId21"/>
+    <hyperlink ref="B29" r:id="rId22"/>
+    <hyperlink ref="B30" r:id="rId23"/>
+    <hyperlink ref="B31" r:id="rId24"/>
+    <hyperlink ref="B32" r:id="rId25"/>
+    <hyperlink ref="B33" r:id="rId26"/>
+    <hyperlink ref="B34" r:id="rId27"/>
+    <hyperlink ref="B35" r:id="rId28"/>
+    <hyperlink ref="B36" r:id="rId29"/>
+    <hyperlink ref="B37" r:id="rId30"/>
+    <hyperlink ref="B38" r:id="rId31"/>
+    <hyperlink ref="B39" r:id="rId32"/>
+    <hyperlink ref="B40" r:id="rId33"/>
+    <hyperlink ref="B41" r:id="rId34"/>
+    <hyperlink ref="B42" r:id="rId35"/>
+    <hyperlink ref="B43" r:id="rId36"/>
+    <hyperlink ref="B46" r:id="rId37"/>
+    <hyperlink ref="B47" r:id="rId38"/>
+    <hyperlink ref="B48" r:id="rId39"/>
+    <hyperlink ref="B49" r:id="rId40"/>
+    <hyperlink ref="B50" r:id="rId41"/>
+    <hyperlink ref="B51" r:id="rId42"/>
+    <hyperlink ref="B52" r:id="rId43"/>
+    <hyperlink ref="B53" r:id="rId44"/>
+    <hyperlink ref="B54" r:id="rId45"/>
+    <hyperlink ref="B55" r:id="rId46"/>
+    <hyperlink ref="B58" r:id="rId47"/>
+    <hyperlink ref="B59" r:id="rId48"/>
+    <hyperlink ref="B60" r:id="rId49"/>
+    <hyperlink ref="B62" r:id="rId50"/>
+    <hyperlink ref="B63" r:id="rId51"/>
+    <hyperlink ref="B64" r:id="rId52"/>
+    <hyperlink ref="B65" r:id="rId53"/>
+    <hyperlink ref="B66" r:id="rId54"/>
+    <hyperlink ref="B67" r:id="rId55"/>
+    <hyperlink ref="B68" r:id="rId56"/>
+    <hyperlink ref="B69" r:id="rId57"/>
+    <hyperlink ref="B70" r:id="rId58"/>
+    <hyperlink ref="B71" r:id="rId59"/>
+    <hyperlink ref="B72" r:id="rId60"/>
+    <hyperlink ref="B73" r:id="rId61"/>
+    <hyperlink ref="B74" r:id="rId62"/>
+    <hyperlink ref="B75" r:id="rId63"/>
+    <hyperlink ref="B76" r:id="rId64"/>
+    <hyperlink ref="B77" r:id="rId65"/>
+    <hyperlink ref="B78" r:id="rId66"/>
+    <hyperlink ref="B79" r:id="rId67"/>
+    <hyperlink ref="B80" r:id="rId68"/>
+    <hyperlink ref="B81" r:id="rId69"/>
+    <hyperlink ref="B82" r:id="rId70"/>
+    <hyperlink ref="B83" r:id="rId71"/>
+    <hyperlink ref="B84" r:id="rId72"/>
+    <hyperlink ref="B85" r:id="rId73"/>
+    <hyperlink ref="B86" r:id="rId74"/>
+    <hyperlink ref="B87" r:id="rId75"/>
+    <hyperlink ref="B88" r:id="rId76"/>
+    <hyperlink ref="B89" r:id="rId77"/>
+    <hyperlink ref="B90" r:id="rId78"/>
+    <hyperlink ref="B91" r:id="rId79"/>
+    <hyperlink ref="B92" r:id="rId80"/>
+    <hyperlink ref="B93" r:id="rId81"/>
+    <hyperlink ref="B94" r:id="rId82"/>
+    <hyperlink ref="B95" r:id="rId83"/>
+    <hyperlink ref="B96" r:id="rId84"/>
+    <hyperlink ref="B97" r:id="rId85"/>
+    <hyperlink ref="B98" r:id="rId86"/>
+    <hyperlink ref="B99" r:id="rId87"/>
+    <hyperlink ref="B100" r:id="rId88"/>
+    <hyperlink ref="B103" r:id="rId89"/>
+    <hyperlink ref="B104" r:id="rId90"/>
+    <hyperlink ref="B105" r:id="rId91"/>
+    <hyperlink ref="B106" r:id="rId92"/>
+    <hyperlink ref="B108" r:id="rId93" location=":~:text=We%20need%20to%20find%20a,set%20of%20points%20is%20minimum.&amp;text=In%20above%20figure%20optimum%20location,is%20minimum%20obtainable%20total%20distance."/>
+    <hyperlink ref="B109" r:id="rId94"/>
+    <hyperlink ref="B110" r:id="rId95"/>
+    <hyperlink ref="B111" r:id="rId96"/>
+    <hyperlink ref="B112" r:id="rId97"/>
+    <hyperlink ref="B113" r:id="rId98"/>
+    <hyperlink ref="B115" r:id="rId99"/>
+    <hyperlink ref="B116" r:id="rId100"/>
+    <hyperlink ref="B117" r:id="rId101"/>
+    <hyperlink ref="B118" r:id="rId102"/>
+    <hyperlink ref="B119" r:id="rId103"/>
+    <hyperlink ref="B120" r:id="rId104"/>
+    <hyperlink ref="B121" r:id="rId105"/>
+    <hyperlink ref="B122" r:id="rId106"/>
+    <hyperlink ref="B123" r:id="rId107"/>
+    <hyperlink ref="B124" r:id="rId108"/>
+    <hyperlink ref="B125" r:id="rId109"/>
+    <hyperlink ref="B126" r:id="rId110"/>
+    <hyperlink ref="B127" r:id="rId111"/>
+    <hyperlink ref="B128" r:id="rId112"/>
+    <hyperlink ref="B129" r:id="rId113"/>
+    <hyperlink ref="B130" r:id="rId114"/>
+    <hyperlink ref="B131" r:id="rId115"/>
+    <hyperlink ref="B132" r:id="rId116"/>
+    <hyperlink ref="B133" r:id="rId117"/>
+    <hyperlink ref="B134" r:id="rId118"/>
+    <hyperlink ref="B135" r:id="rId119"/>
+    <hyperlink ref="B136" r:id="rId120"/>
+    <hyperlink ref="B137" r:id="rId121"/>
+    <hyperlink ref="B138" r:id="rId122"/>
+    <hyperlink ref="B107" r:id="rId123"/>
+    <hyperlink ref="B114" r:id="rId124"/>
+    <hyperlink ref="B141" r:id="rId125"/>
+    <hyperlink ref="B142" r:id="rId126"/>
+    <hyperlink ref="B143" r:id="rId127"/>
+    <hyperlink ref="B144" r:id="rId128"/>
+    <hyperlink ref="B145" r:id="rId129"/>
+    <hyperlink ref="B146" r:id="rId130"/>
+    <hyperlink ref="B147" r:id="rId131"/>
+    <hyperlink ref="B148" r:id="rId132"/>
+    <hyperlink ref="B149" r:id="rId133"/>
+    <hyperlink ref="B150" r:id="rId134"/>
+    <hyperlink ref="B151" r:id="rId135"/>
+    <hyperlink ref="B152" r:id="rId136"/>
+    <hyperlink ref="B153" r:id="rId137"/>
+    <hyperlink ref="B154" r:id="rId138"/>
+    <hyperlink ref="B155" r:id="rId139"/>
+    <hyperlink ref="B156" r:id="rId140"/>
+    <hyperlink ref="B157" r:id="rId141"/>
+    <hyperlink ref="B158" r:id="rId142"/>
+    <hyperlink ref="B159" r:id="rId143"/>
+    <hyperlink ref="B160" r:id="rId144"/>
+    <hyperlink ref="B161" r:id="rId145"/>
+    <hyperlink ref="B162" r:id="rId146"/>
+    <hyperlink ref="B163" r:id="rId147"/>
+    <hyperlink ref="B164" r:id="rId148"/>
+    <hyperlink ref="B165" r:id="rId149"/>
+    <hyperlink ref="B168" r:id="rId150"/>
+    <hyperlink ref="B169" r:id="rId151"/>
+    <hyperlink ref="B170" r:id="rId152"/>
+    <hyperlink ref="B171" r:id="rId153"/>
+    <hyperlink ref="B172" r:id="rId154"/>
+    <hyperlink ref="B173" r:id="rId155"/>
+    <hyperlink ref="B174" r:id="rId156"/>
+    <hyperlink ref="B175" r:id="rId157"/>
+    <hyperlink ref="B176" r:id="rId158"/>
+    <hyperlink ref="B179" r:id="rId159"/>
+    <hyperlink ref="B180" r:id="rId160"/>
+    <hyperlink ref="B181" r:id="rId161"/>
+    <hyperlink ref="B182" r:id="rId162"/>
+    <hyperlink ref="B183" r:id="rId163"/>
+    <hyperlink ref="B184" r:id="rId164"/>
+    <hyperlink ref="B185" r:id="rId165"/>
+    <hyperlink ref="B186" r:id="rId166"/>
+    <hyperlink ref="B187" r:id="rId167"/>
+    <hyperlink ref="B188" r:id="rId168"/>
+    <hyperlink ref="B189" r:id="rId169"/>
+    <hyperlink ref="B190" r:id="rId170"/>
+    <hyperlink ref="B191" r:id="rId171"/>
+    <hyperlink ref="B192" r:id="rId172"/>
+    <hyperlink ref="B193" r:id="rId173"/>
+    <hyperlink ref="B194" r:id="rId174"/>
+    <hyperlink ref="B195" r:id="rId175"/>
+    <hyperlink ref="B196" r:id="rId176"/>
+    <hyperlink ref="B197" r:id="rId177"/>
+    <hyperlink ref="B198" r:id="rId178"/>
+    <hyperlink ref="B199" r:id="rId179" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010."/>
+    <hyperlink ref="B200" r:id="rId180"/>
+    <hyperlink ref="B201" r:id="rId181"/>
+    <hyperlink ref="B202" r:id="rId182"/>
+    <hyperlink ref="B203" r:id="rId183"/>
+    <hyperlink ref="B204" r:id="rId184"/>
+    <hyperlink ref="B205" r:id="rId185" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not."/>
+    <hyperlink ref="B206" r:id="rId186"/>
+    <hyperlink ref="B207" r:id="rId187"/>
+    <hyperlink ref="B208" r:id="rId188"/>
+    <hyperlink ref="B209" r:id="rId189"/>
+    <hyperlink ref="B210" r:id="rId190"/>
+    <hyperlink ref="B211" r:id="rId191"/>
+    <hyperlink ref="B212" r:id="rId192"/>
+    <hyperlink ref="B213" r:id="rId193"/>
+    <hyperlink ref="B216" r:id="rId194"/>
+    <hyperlink ref="B217" r:id="rId195"/>
+    <hyperlink ref="B218" r:id="rId196"/>
+    <hyperlink ref="B219" r:id="rId197"/>
+    <hyperlink ref="B220" r:id="rId198"/>
+    <hyperlink ref="B221" r:id="rId199"/>
+    <hyperlink ref="B222" r:id="rId200"/>
+    <hyperlink ref="B223" r:id="rId201"/>
+    <hyperlink ref="B224" r:id="rId202"/>
+    <hyperlink ref="B225" r:id="rId203"/>
+    <hyperlink ref="B226" r:id="rId204"/>
+    <hyperlink ref="B227" r:id="rId205"/>
+    <hyperlink ref="B228" r:id="rId206"/>
+    <hyperlink ref="B229" r:id="rId207"/>
+    <hyperlink ref="B230" r:id="rId208"/>
+    <hyperlink ref="B231" r:id="rId209"/>
+    <hyperlink ref="B232" r:id="rId210"/>
+    <hyperlink ref="B233" r:id="rId211"/>
+    <hyperlink ref="B234" r:id="rId212"/>
+    <hyperlink ref="B235" r:id="rId213"/>
+    <hyperlink ref="B236" r:id="rId214"/>
+    <hyperlink ref="B237" r:id="rId215"/>
+    <hyperlink ref="B240" r:id="rId216"/>
+    <hyperlink ref="B241" r:id="rId217"/>
+    <hyperlink ref="B242" r:id="rId218"/>
+    <hyperlink ref="B243" r:id="rId219"/>
+    <hyperlink ref="B244" r:id="rId220"/>
+    <hyperlink ref="B245" r:id="rId221"/>
+    <hyperlink ref="B246" r:id="rId222"/>
+    <hyperlink ref="B247" r:id="rId223"/>
+    <hyperlink ref="B248" r:id="rId224"/>
+    <hyperlink ref="B249" r:id="rId225"/>
+    <hyperlink ref="B250" r:id="rId226"/>
+    <hyperlink ref="B251" r:id="rId227"/>
+    <hyperlink ref="B252" r:id="rId228"/>
+    <hyperlink ref="B253" r:id="rId229"/>
+    <hyperlink ref="B254" r:id="rId230"/>
+    <hyperlink ref="B255" r:id="rId231"/>
+    <hyperlink ref="B256" r:id="rId232"/>
+    <hyperlink ref="B257" r:id="rId233"/>
+    <hyperlink ref="B258" r:id="rId234"/>
+    <hyperlink ref="B259" r:id="rId235" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S."/>
+    <hyperlink ref="B260" r:id="rId236"/>
+    <hyperlink ref="B261" r:id="rId237"/>
+    <hyperlink ref="B262" r:id="rId238"/>
+    <hyperlink ref="B263" r:id="rId239"/>
+    <hyperlink ref="B264" r:id="rId240"/>
+    <hyperlink ref="B265" r:id="rId241"/>
+    <hyperlink ref="B266" r:id="rId242"/>
+    <hyperlink ref="B267" r:id="rId243"/>
+    <hyperlink ref="B268" r:id="rId244"/>
+    <hyperlink ref="B269" r:id="rId245"/>
+    <hyperlink ref="B270" r:id="rId246"/>
+    <hyperlink ref="B271" r:id="rId247"/>
+    <hyperlink ref="B272" r:id="rId248"/>
+    <hyperlink ref="B273" r:id="rId249"/>
+    <hyperlink ref="B274" r:id="rId250"/>
+    <hyperlink ref="B277" r:id="rId251"/>
+    <hyperlink ref="B278" r:id="rId252"/>
+    <hyperlink ref="B279" r:id="rId253"/>
+    <hyperlink ref="B280" r:id="rId254"/>
+    <hyperlink ref="B281" r:id="rId255"/>
+    <hyperlink ref="B282" r:id="rId256"/>
+    <hyperlink ref="B283" r:id="rId257"/>
+    <hyperlink ref="B284" r:id="rId258"/>
+    <hyperlink ref="B285" r:id="rId259"/>
+    <hyperlink ref="B286" r:id="rId260"/>
+    <hyperlink ref="B287" r:id="rId261"/>
+    <hyperlink ref="B288" r:id="rId262"/>
+    <hyperlink ref="B289" r:id="rId263"/>
+    <hyperlink ref="B290" r:id="rId264"/>
+    <hyperlink ref="B291" r:id="rId265"/>
+    <hyperlink ref="B292" r:id="rId266"/>
+    <hyperlink ref="B293" r:id="rId267"/>
+    <hyperlink ref="B294" r:id="rId268"/>
+    <hyperlink ref="B295" r:id="rId269"/>
+    <hyperlink ref="B298" r:id="rId270"/>
+    <hyperlink ref="B299" r:id="rId271"/>
+    <hyperlink ref="B300" r:id="rId272"/>
+    <hyperlink ref="B301" r:id="rId273"/>
+    <hyperlink ref="B302" r:id="rId274"/>
+    <hyperlink ref="B303" r:id="rId275"/>
+    <hyperlink ref="B304" r:id="rId276"/>
+    <hyperlink ref="B305" r:id="rId277"/>
+    <hyperlink ref="B306" r:id="rId278"/>
+    <hyperlink ref="B307" r:id="rId279"/>
+    <hyperlink ref="B308" r:id="rId280" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)."/>
+    <hyperlink ref="B309" r:id="rId281"/>
+    <hyperlink ref="B310" r:id="rId282"/>
+    <hyperlink ref="B311" r:id="rId283"/>
+    <hyperlink ref="B312" r:id="rId284"/>
+    <hyperlink ref="B313" r:id="rId285"/>
+    <hyperlink ref="B314" r:id="rId286"/>
+    <hyperlink ref="B315" r:id="rId287"/>
+    <hyperlink ref="B316" r:id="rId288"/>
+    <hyperlink ref="B317" r:id="rId289"/>
+    <hyperlink ref="B318" r:id="rId290"/>
+    <hyperlink ref="B319" r:id="rId291"/>
+    <hyperlink ref="B320" r:id="rId292"/>
+    <hyperlink ref="B321" r:id="rId293"/>
+    <hyperlink ref="B322" r:id="rId294"/>
+    <hyperlink ref="B323" r:id="rId295"/>
+    <hyperlink ref="B324" r:id="rId296"/>
+    <hyperlink ref="B325" r:id="rId297"/>
+    <hyperlink ref="B326" r:id="rId298"/>
+    <hyperlink ref="B327" r:id="rId299"/>
+    <hyperlink ref="B328" r:id="rId300"/>
+    <hyperlink ref="B329" r:id="rId301"/>
+    <hyperlink ref="B330" r:id="rId302"/>
+    <hyperlink ref="B331" r:id="rId303"/>
+    <hyperlink ref="B332" r:id="rId304"/>
+    <hyperlink ref="B333" r:id="rId305"/>
+    <hyperlink ref="B334" r:id="rId306"/>
+    <hyperlink ref="B335" r:id="rId307"/>
+    <hyperlink ref="B338" r:id="rId308"/>
+    <hyperlink ref="B339" r:id="rId309"/>
+    <hyperlink ref="B340" r:id="rId310"/>
+    <hyperlink ref="B341" r:id="rId311"/>
+    <hyperlink ref="B342" r:id="rId312"/>
+    <hyperlink ref="B343" r:id="rId313"/>
+    <hyperlink ref="B344" r:id="rId314"/>
+    <hyperlink ref="B345" r:id="rId315"/>
+    <hyperlink ref="B346" r:id="rId316"/>
+    <hyperlink ref="B347" r:id="rId317"/>
+    <hyperlink ref="B348" r:id="rId318"/>
+    <hyperlink ref="B349" r:id="rId319"/>
+    <hyperlink ref="B350" r:id="rId320"/>
+    <hyperlink ref="B351" r:id="rId321"/>
+    <hyperlink ref="B352" r:id="rId322"/>
+    <hyperlink ref="B353" r:id="rId323"/>
+    <hyperlink ref="B354" r:id="rId324"/>
+    <hyperlink ref="B355" r:id="rId325"/>
+    <hyperlink ref="B359" r:id="rId326"/>
+    <hyperlink ref="B360" r:id="rId327"/>
+    <hyperlink ref="B361" r:id="rId328"/>
+    <hyperlink ref="B362" r:id="rId329"/>
+    <hyperlink ref="B363" r:id="rId330"/>
+    <hyperlink ref="B364" r:id="rId331"/>
+    <hyperlink ref="B365" r:id="rId332"/>
+    <hyperlink ref="B366" r:id="rId333"/>
+    <hyperlink ref="B367" r:id="rId334"/>
+    <hyperlink ref="B368" r:id="rId335"/>
+    <hyperlink ref="B369" r:id="rId336"/>
+    <hyperlink ref="B370" r:id="rId337"/>
+    <hyperlink ref="B371" r:id="rId338"/>
+    <hyperlink ref="B372" r:id="rId339"/>
+    <hyperlink ref="B373" r:id="rId340"/>
+    <hyperlink ref="B374" r:id="rId341"/>
+    <hyperlink ref="B375" r:id="rId342"/>
+    <hyperlink ref="B376" r:id="rId343"/>
+    <hyperlink ref="B377" r:id="rId344"/>
+    <hyperlink ref="B378" r:id="rId345"/>
+    <hyperlink ref="B379" r:id="rId346"/>
+    <hyperlink ref="B380" r:id="rId347"/>
+    <hyperlink ref="B381" r:id="rId348" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color."/>
+    <hyperlink ref="B382" r:id="rId349"/>
+    <hyperlink ref="B383" r:id="rId350"/>
+    <hyperlink ref="B384" r:id="rId351"/>
+    <hyperlink ref="B385" r:id="rId352"/>
+    <hyperlink ref="B386" r:id="rId353"/>
+    <hyperlink ref="B387" r:id="rId354"/>
+    <hyperlink ref="B388" r:id="rId355"/>
+    <hyperlink ref="B389" r:id="rId356"/>
+    <hyperlink ref="B390" r:id="rId357"/>
+    <hyperlink ref="B391" r:id="rId358"/>
+    <hyperlink ref="B392" r:id="rId359"/>
+    <hyperlink ref="B393" r:id="rId360"/>
+    <hyperlink ref="B394" r:id="rId361"/>
+    <hyperlink ref="B395" r:id="rId362"/>
+    <hyperlink ref="B396" r:id="rId363"/>
+    <hyperlink ref="B398" r:id="rId364"/>
+    <hyperlink ref="B397" r:id="rId365"/>
+    <hyperlink ref="B399" r:id="rId366"/>
+    <hyperlink ref="B400" r:id="rId367"/>
+    <hyperlink ref="B401" r:id="rId368"/>
+    <hyperlink ref="B404" r:id="rId369"/>
+    <hyperlink ref="B405" r:id="rId370"/>
+    <hyperlink ref="B406" r:id="rId371"/>
+    <hyperlink ref="B407" r:id="rId372"/>
+    <hyperlink ref="B408" r:id="rId373"/>
+    <hyperlink ref="B409" r:id="rId374"/>
+    <hyperlink ref="B412" r:id="rId375"/>
+    <hyperlink ref="B413" r:id="rId376"/>
+    <hyperlink ref="B414" r:id="rId377"/>
+    <hyperlink ref="B415" r:id="rId378"/>
+    <hyperlink ref="B416" r:id="rId379"/>
+    <hyperlink ref="B417" r:id="rId380"/>
+    <hyperlink ref="B418" r:id="rId381"/>
+    <hyperlink ref="B419" r:id="rId382"/>
+    <hyperlink ref="B420" r:id="rId383"/>
+    <hyperlink ref="B421" r:id="rId384"/>
+    <hyperlink ref="B422" r:id="rId385"/>
+    <hyperlink ref="B423" r:id="rId386"/>
+    <hyperlink ref="B424" r:id="rId387"/>
+    <hyperlink ref="B425" r:id="rId388"/>
+    <hyperlink ref="B426" r:id="rId389"/>
+    <hyperlink ref="B427" r:id="rId390"/>
+    <hyperlink ref="B428" r:id="rId391"/>
+    <hyperlink ref="B429" r:id="rId392"/>
+    <hyperlink ref="B430" r:id="rId393"/>
+    <hyperlink ref="B431" r:id="rId394"/>
+    <hyperlink ref="B432" r:id="rId395"/>
+    <hyperlink ref="B433" r:id="rId396"/>
+    <hyperlink ref="B434" r:id="rId397"/>
+    <hyperlink ref="B435" r:id="rId398"/>
+    <hyperlink ref="B436" r:id="rId399"/>
+    <hyperlink ref="B437" r:id="rId400"/>
+    <hyperlink ref="B438" r:id="rId401"/>
+    <hyperlink ref="B439" r:id="rId402"/>
+    <hyperlink ref="B440" r:id="rId403"/>
+    <hyperlink ref="B441" r:id="rId404"/>
+    <hyperlink ref="B442" r:id="rId405"/>
+    <hyperlink ref="B443" r:id="rId406"/>
+    <hyperlink ref="B444" r:id="rId407"/>
+    <hyperlink ref="B445" r:id="rId408"/>
+    <hyperlink ref="B446" r:id="rId409"/>
+    <hyperlink ref="B447" r:id="rId410"/>
+    <hyperlink ref="B448" r:id="rId411"/>
+    <hyperlink ref="B449" r:id="rId412"/>
+    <hyperlink ref="B450" r:id="rId413"/>
+    <hyperlink ref="B451" r:id="rId414"/>
+    <hyperlink ref="B453" r:id="rId415"/>
+    <hyperlink ref="B452" r:id="rId416"/>
+    <hyperlink ref="B454" r:id="rId417"/>
+    <hyperlink ref="B455" r:id="rId418"/>
+    <hyperlink ref="B456" r:id="rId419"/>
+    <hyperlink ref="B457" r:id="rId420"/>
+    <hyperlink ref="B458" r:id="rId421"/>
+    <hyperlink ref="B459" r:id="rId422"/>
+    <hyperlink ref="B460" r:id="rId423"/>
+    <hyperlink ref="B461" r:id="rId424"/>
+    <hyperlink ref="B462" r:id="rId425"/>
+    <hyperlink ref="B463" r:id="rId426"/>
+    <hyperlink ref="B464" r:id="rId427"/>
+    <hyperlink ref="B471" r:id="rId428"/>
+    <hyperlink ref="B470" r:id="rId429"/>
+    <hyperlink ref="B469" r:id="rId430"/>
+    <hyperlink ref="B468" r:id="rId431"/>
+    <hyperlink ref="B467" r:id="rId432"/>
+    <hyperlink ref="B466" r:id="rId433"/>
+    <hyperlink ref="B465" r:id="rId434"/>
+    <hyperlink ref="B474" r:id="rId435"/>
+    <hyperlink ref="B475" r:id="rId436"/>
+    <hyperlink ref="B476" r:id="rId437"/>
+    <hyperlink ref="B477" r:id="rId438"/>
+    <hyperlink ref="B478" r:id="rId439"/>
+    <hyperlink ref="B479" r:id="rId440"/>
+    <hyperlink ref="B480" r:id="rId441"/>
+    <hyperlink ref="B483" r:id="rId442"/>
+    <hyperlink ref="B481" r:id="rId443"/>
+    <hyperlink ref="B482" r:id="rId444" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result."/>
+    <hyperlink ref="B358" r:id="rId445"/>
     <hyperlink ref="B2" r:id="rId446"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/0.2) Ques by Love Babbar/0) FINAL450.xlsx
+++ b/0.2) Ques by Love Babbar/0) FINAL450.xlsx
@@ -1882,7 +1882,7 @@
   <dimension ref="A1:C483"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1956,13 +1956,13 @@
       <c r="C10" s="14"/>
     </row>
     <row r="11" spans="1:3" ht="21">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="4"/>
+      <c r="C11" s="14"/>
     </row>
     <row r="12" spans="1:3" ht="21">
       <c r="A12" s="5" t="s">

--- a/0.2) Ques by Love Babbar/0) FINAL450.xlsx
+++ b/0.2) Ques by Love Babbar/0) FINAL450.xlsx
@@ -1424,10 +1424,10 @@
     <t xml:space="preserve">Youtube Channel: https://www.youtube.com/channel/UCQHLxxBFrbfdrk1jF0moTpw </t>
   </si>
   <si>
-    <t>Solved without Editorial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Solved with Editorial </t>
+    <t>Solved with Editorial approach</t>
+  </si>
+  <si>
+    <t>Solved without Editorial approach</t>
   </si>
 </sst>
 </file>
@@ -1882,14 +1882,14 @@
   <dimension ref="A1:C483"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="28.5" customWidth="1"/>
     <col min="2" max="2" width="123" customWidth="1"/>
-    <col min="3" max="3" width="27.5" customWidth="1"/>
+    <col min="3" max="3" width="36.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="26.25">
@@ -1905,13 +1905,13 @@
     <row r="3" spans="1:3">
       <c r="B3" s="10"/>
       <c r="C3" s="11" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="B4" s="10"/>
       <c r="C4" s="14" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="21">
@@ -1965,13 +1965,13 @@
       <c r="C11" s="14"/>
     </row>
     <row r="12" spans="1:3" ht="21">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="4"/>
+      <c r="C12" s="14"/>
     </row>
     <row r="13" spans="1:3" ht="21">
       <c r="A13" s="5" t="s">

--- a/0.2) Ques by Love Babbar/0) FINAL450.xlsx
+++ b/0.2) Ques by Love Babbar/0) FINAL450.xlsx
@@ -1530,7 +1530,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1564,6 +1564,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1881,8 +1885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C483"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1974,13 +1978,13 @@
       <c r="C12" s="14"/>
     </row>
     <row r="13" spans="1:3" ht="21">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="4"/>
+      <c r="C13" s="11"/>
     </row>
     <row r="14" spans="1:3" ht="21">
       <c r="A14" s="5" t="s">

--- a/0.2) Ques by Love Babbar/0) FINAL450.xlsx
+++ b/0.2) Ques by Love Babbar/0) FINAL450.xlsx
@@ -1886,7 +1886,7 @@
   <dimension ref="A1:C483"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1987,13 +1987,13 @@
       <c r="C13" s="11"/>
     </row>
     <row r="14" spans="1:3" ht="21">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="4"/>
+      <c r="C14" s="14"/>
     </row>
     <row r="15" spans="1:3" ht="21">
       <c r="A15" s="5" t="s">

--- a/0.2) Ques by Love Babbar/0) FINAL450.xlsx
+++ b/0.2) Ques by Love Babbar/0) FINAL450.xlsx
@@ -1886,7 +1886,7 @@
   <dimension ref="A1:C483"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1996,13 +1996,13 @@
       <c r="C14" s="14"/>
     </row>
     <row r="15" spans="1:3" ht="21">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="4"/>
+      <c r="C15" s="11"/>
     </row>
     <row r="16" spans="1:3" ht="21">
       <c r="A16" s="5" t="s">

--- a/0.2) Ques by Love Babbar/0) FINAL450.xlsx
+++ b/0.2) Ques by Love Babbar/0) FINAL450.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gaurav Raj\Desktop\Apna College\Placement-Competitve\0.2) Ques by Love Babbar\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gaurav Raj\Desktop\Apna College\Placement-Competitve-1\0.2) Ques by Love Babbar\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1928,8 +1928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C483"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2050,13 +2050,13 @@
       <c r="C15" s="19"/>
     </row>
     <row r="16" spans="1:3" ht="21">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="2"/>
+      <c r="C16" s="19"/>
     </row>
     <row r="17" spans="1:3" ht="21">
       <c r="A17" s="8" t="s">

--- a/0.2) Ques by Love Babbar/0) FINAL450.xlsx
+++ b/0.2) Ques by Love Babbar/0) FINAL450.xlsx
@@ -1929,7 +1929,7 @@
   <dimension ref="A1:C483"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="A20" sqref="A20:C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2086,13 +2086,13 @@
       <c r="C19" s="2"/>
     </row>
     <row r="20" spans="1:3" ht="21">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="2"/>
+      <c r="C20" s="19"/>
     </row>
     <row r="21" spans="1:3" ht="21">
       <c r="A21" s="8" t="s">

--- a/0.2) Ques by Love Babbar/0) FINAL450.xlsx
+++ b/0.2) Ques by Love Babbar/0) FINAL450.xlsx
@@ -1434,7 +1434,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12">
+  <fonts count="15">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1527,6 +1527,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="16"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1567,7 +1587,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1611,6 +1631,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1928,8 +1955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C483"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:C20"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2059,13 +2086,13 @@
       <c r="C16" s="19"/>
     </row>
     <row r="17" spans="1:3" ht="21">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="2"/>
+      <c r="C17" s="23"/>
     </row>
     <row r="18" spans="1:3" ht="21">
       <c r="A18" s="8" t="s">
